--- a/analysis/Analysis_Experiments_V7.1_18-May-2023.xlsx
+++ b/analysis/Analysis_Experiments_V7.1_18-May-2023.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rajesh\ResearchLab\RL_for_PdM\REINFORCE_Tool_Replace_Policy\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98482C88-470E-493A-8329-689EB17C62C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4611D506-1E5A-46F0-968A-0B40C4FBD597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="376" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="521" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Simulated Env." sheetId="12" r:id="rId1"/>
     <sheet name="PHM Single-var State" sheetId="13" r:id="rId2"/>
     <sheet name="PHM Multi-var State" sheetId="14" r:id="rId3"/>
-    <sheet name="Notes" sheetId="6" r:id="rId4"/>
-    <sheet name="Emperical study articles" sheetId="11" r:id="rId5"/>
+    <sheet name="SB-3 Stability" sheetId="15" r:id="rId4"/>
+    <sheet name="Notes" sheetId="6" r:id="rId5"/>
+    <sheet name="Emperical study articles" sheetId="11" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="201">
   <si>
     <t>A2C</t>
   </si>
@@ -770,6 +771,177 @@
   </si>
   <si>
     <t>C-01.No noise or break-down - TRIAL 2 -- increased episodes</t>
+  </si>
+  <si>
+    <t>C01-MS env. Low Noise Experiments</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Breakdown_chance</t>
+  </si>
+  <si>
+    <t>Train_data</t>
+  </si>
+  <si>
+    <t>Wear threshold</t>
+  </si>
+  <si>
+    <t>Test_info</t>
+  </si>
+  <si>
+    <t>Test_cases</t>
+  </si>
+  <si>
+    <t>Metrics_method</t>
+  </si>
+  <si>
+    <t>PHM 2006. Multi-var state V2.</t>
+  </si>
+  <si>
+    <t>data\PHM_C01_MultiStateEnv_0p12.csv</t>
+  </si>
+  <si>
+    <t>Sampled from training data</t>
+  </si>
+  <si>
+    <t>weighted</t>
+  </si>
+  <si>
+    <t>Wtd_Precision</t>
+  </si>
+  <si>
+    <t>Wtd_Recall</t>
+  </si>
+  <si>
+    <t>F_Beta_0_5</t>
+  </si>
+  <si>
+    <t>F_Beta_0_75</t>
+  </si>
+  <si>
+    <t>F_1_Score</t>
+  </si>
+  <si>
+    <t>Normal_error</t>
+  </si>
+  <si>
+    <t>Replace_error</t>
+  </si>
+  <si>
+    <t>Overall_error</t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t>PHM</t>
+  </si>
+  <si>
+    <t>Env</t>
+  </si>
+  <si>
+    <t>Ep</t>
+  </si>
+  <si>
+    <t>Term at</t>
+  </si>
+  <si>
+    <t>Round</t>
+  </si>
+  <si>
+    <t>Training_data</t>
+  </si>
+  <si>
+    <t>Wear_Threshold</t>
+  </si>
+  <si>
+    <t>Test_data</t>
+  </si>
+  <si>
+    <t>Normal_cases</t>
+  </si>
+  <si>
+    <t>Replace_cases</t>
+  </si>
+  <si>
+    <t>Report file</t>
+  </si>
+  <si>
+    <t>PHM-C06</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>PHM-MS-C01_LowNBD_0.11_1200_347</t>
+  </si>
+  <si>
+    <t>PHM-C07</t>
+  </si>
+  <si>
+    <t>PHM-C08</t>
+  </si>
+  <si>
+    <t>PHM-C09</t>
+  </si>
+  <si>
+    <t>PHM-C10</t>
+  </si>
+  <si>
+    <t>PHM-C01</t>
+  </si>
+  <si>
+    <t>PHM-MS-C01_LowNBD_0.11_1200_800</t>
+  </si>
+  <si>
+    <t>PHM-MS-C01_LowNBD_0.11_1400_800</t>
+  </si>
+  <si>
+    <t>PHM-C11</t>
+  </si>
+  <si>
+    <t>PHM-C12</t>
+  </si>
+  <si>
+    <t>PHM-C13</t>
+  </si>
+  <si>
+    <t>PHM-C14</t>
+  </si>
+  <si>
+    <t>PHM-C15</t>
+  </si>
+  <si>
+    <t>PHM-C16</t>
+  </si>
+  <si>
+    <t>PHM-C17</t>
+  </si>
+  <si>
+    <t>PHM-C18</t>
+  </si>
+  <si>
+    <t>PHM-C19</t>
+  </si>
+  <si>
+    <t>PHM-C20</t>
+  </si>
+  <si>
+    <t>PHM-C02</t>
+  </si>
+  <si>
+    <t>PHM-C03</t>
+  </si>
+  <si>
+    <t>PHM-C04</t>
+  </si>
+  <si>
+    <t>PHM-C05</t>
   </si>
 </sst>
 </file>
@@ -1049,7 +1221,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1268,6 +1440,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1687,27 +1865,17 @@
     </xf>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="16" fillId="34" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="30" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="18" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1716,6 +1884,16 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="30" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="34" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2791,11 +2969,11 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="P3" s="79" t="s">
+      <c r="P3" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="Q3" s="79"/>
-      <c r="R3" s="79"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="91"/>
     </row>
     <row r="4" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4"/>
@@ -2807,26 +2985,26 @@
       <c r="E4" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="78" t="s">
+      <c r="F4" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78" t="s">
+      <c r="G4" s="92"/>
+      <c r="H4" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="I4" s="92"/>
+      <c r="J4" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78" t="s">
+      <c r="K4" s="92"/>
+      <c r="L4" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="M4" s="78"/>
-      <c r="N4" s="78" t="s">
+      <c r="M4" s="92"/>
+      <c r="N4" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="O4" s="78"/>
+      <c r="O4" s="92"/>
       <c r="P4" s="12" t="s">
         <v>126</v>
       </c>
@@ -3992,7 +4170,7 @@
     </row>
     <row r="3" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:25" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="78" t="s">
         <v>73</v>
       </c>
       <c r="B4" s="63" t="s">
@@ -4003,26 +4181,26 @@
       <c r="E4" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="78" t="s">
+      <c r="F4" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78" t="s">
+      <c r="G4" s="92"/>
+      <c r="H4" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="I4" s="92"/>
+      <c r="J4" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78" t="s">
+      <c r="K4" s="92"/>
+      <c r="L4" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="M4" s="78"/>
-      <c r="N4" s="78" t="s">
+      <c r="M4" s="92"/>
+      <c r="N4" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="O4" s="78"/>
+      <c r="O4" s="92"/>
       <c r="P4" s="73" t="s">
         <v>126</v>
       </c>
@@ -4038,7 +4216,7 @@
       <c r="U4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="V4" s="87" t="s">
+      <c r="V4" s="84" t="s">
         <v>11</v>
       </c>
       <c r="W4" s="71" t="s">
@@ -4050,7 +4228,7 @@
       <c r="Y4" s="19"/>
     </row>
     <row r="5" spans="1:25" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="81">
+      <c r="A5" s="79">
         <v>0.12</v>
       </c>
       <c r="B5" s="50" t="s">
@@ -4196,7 +4374,7 @@
       <c r="W7" s="3">
         <v>353</v>
       </c>
-      <c r="X7" s="86">
+      <c r="X7" s="83">
         <v>9.7500000000000003E-2</v>
       </c>
       <c r="Y7" t="s">
@@ -4956,7 +5134,7 @@
       <c r="W23"/>
     </row>
     <row r="24" spans="1:28" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="80" t="s">
+      <c r="A24" s="78" t="s">
         <v>78</v>
       </c>
       <c r="B24" s="63" t="s">
@@ -4967,26 +5145,26 @@
       <c r="E24" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="78" t="s">
+      <c r="F24" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="78"/>
-      <c r="H24" s="78" t="s">
+      <c r="G24" s="92"/>
+      <c r="H24" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="I24" s="78"/>
-      <c r="J24" s="78" t="s">
+      <c r="I24" s="92"/>
+      <c r="J24" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="K24" s="78"/>
-      <c r="L24" s="78" t="s">
+      <c r="K24" s="92"/>
+      <c r="L24" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="M24" s="78"/>
-      <c r="N24" s="78" t="s">
+      <c r="M24" s="92"/>
+      <c r="N24" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="O24" s="78"/>
+      <c r="O24" s="92"/>
       <c r="P24" s="73" t="s">
         <v>126</v>
       </c>
@@ -5001,7 +5179,7 @@
       </c>
     </row>
     <row r="25" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="81">
+      <c r="A25" s="79">
         <v>9.7500000000000003E-2</v>
       </c>
       <c r="B25" s="50" t="s">
@@ -5076,7 +5254,7 @@
       <c r="C27" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="92">
+      <c r="D27" s="86">
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="E27" s="38" t="s">
@@ -5144,7 +5322,7 @@
       <c r="H28" s="1">
         <v>0.5</v>
       </c>
-      <c r="I28" s="83">
+      <c r="I28" s="81">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="J28" s="1">
@@ -5162,7 +5340,7 @@
       <c r="N28" s="1">
         <v>0.35799999999999998</v>
       </c>
-      <c r="O28" s="83">
+      <c r="O28" s="81">
         <v>0.03</v>
       </c>
       <c r="P28" s="1">
@@ -5328,7 +5506,7 @@
       <c r="C33" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D33" s="92">
+      <c r="D33" s="86">
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="E33" s="38" t="s">
@@ -5402,7 +5580,7 @@
       <c r="H34" s="1">
         <v>0.49</v>
       </c>
-      <c r="I34" s="84">
+      <c r="I34" s="1">
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="J34" s="1">
@@ -5426,7 +5604,7 @@
       <c r="P34" s="1">
         <v>0.04</v>
       </c>
-      <c r="Q34" s="84">
+      <c r="Q34" s="1">
         <v>0.98</v>
       </c>
       <c r="R34" s="1">
@@ -5455,31 +5633,31 @@
       <c r="F35" s="1">
         <v>0.33800000000000002</v>
       </c>
-      <c r="G35" s="84">
+      <c r="G35" s="1">
         <v>8.3000000000000004E-2</v>
       </c>
       <c r="H35" s="1">
         <v>0.36</v>
       </c>
-      <c r="I35" s="84">
+      <c r="I35" s="1">
         <v>7.3999999999999996E-2</v>
       </c>
       <c r="J35" s="1">
         <v>0.33600000000000002</v>
       </c>
-      <c r="K35" s="84">
+      <c r="K35" s="1">
         <v>8.1000000000000003E-2</v>
       </c>
       <c r="L35" s="1">
         <v>0.33700000000000002</v>
       </c>
-      <c r="M35" s="84">
+      <c r="M35" s="1">
         <v>0.08</v>
       </c>
       <c r="N35" s="1">
         <v>0.33900000000000002</v>
       </c>
-      <c r="O35" s="84">
+      <c r="O35" s="1">
         <v>7.8E-2</v>
       </c>
       <c r="P35" s="1">
@@ -5587,7 +5765,7 @@
       <c r="C39" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D39" s="92">
+      <c r="D39" s="86">
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="E39" s="38" t="s">
@@ -5608,13 +5786,13 @@
       <c r="J39" s="1">
         <v>0.44900000000000001</v>
       </c>
-      <c r="K39" s="83">
+      <c r="K39" s="81">
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="L39" s="1">
         <v>0.44800000000000001</v>
       </c>
-      <c r="M39" s="83">
+      <c r="M39" s="81">
         <v>5.1999999999999998E-2</v>
       </c>
       <c r="N39" s="1">
@@ -5653,7 +5831,7 @@
       <c r="H40" s="1">
         <v>0.51</v>
       </c>
-      <c r="I40" s="83">
+      <c r="I40" s="81">
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="J40" s="1">
@@ -5755,7 +5933,7 @@
       <c r="H42" s="9">
         <v>0.85499999999999998</v>
       </c>
-      <c r="I42" s="85">
+      <c r="I42" s="82">
         <v>0.06</v>
       </c>
       <c r="J42" s="9">
@@ -5767,16 +5945,16 @@
       <c r="L42" s="9">
         <v>0.85599999999999998</v>
       </c>
-      <c r="M42" s="85">
+      <c r="M42" s="82">
         <v>0.06</v>
       </c>
       <c r="N42" s="9">
         <v>0.85399999999999998</v>
       </c>
-      <c r="O42" s="85">
+      <c r="O42" s="82">
         <v>0.06</v>
       </c>
-      <c r="P42" s="85">
+      <c r="P42" s="82">
         <v>0.22</v>
       </c>
       <c r="Q42" s="9">
@@ -5814,7 +5992,7 @@
       <c r="S44" s="1"/>
     </row>
     <row r="45" spans="1:28" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="80" t="s">
+      <c r="A45" s="78" t="s">
         <v>81</v>
       </c>
       <c r="B45" s="63" t="s">
@@ -5825,26 +6003,26 @@
       <c r="E45" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="F45" s="78" t="s">
+      <c r="F45" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="G45" s="78"/>
-      <c r="H45" s="78" t="s">
+      <c r="G45" s="92"/>
+      <c r="H45" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="I45" s="78"/>
-      <c r="J45" s="78" t="s">
+      <c r="I45" s="92"/>
+      <c r="J45" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="K45" s="78"/>
-      <c r="L45" s="78" t="s">
+      <c r="K45" s="92"/>
+      <c r="L45" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="M45" s="78"/>
-      <c r="N45" s="78" t="s">
+      <c r="M45" s="92"/>
+      <c r="N45" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="O45" s="78"/>
+      <c r="O45" s="92"/>
       <c r="P45" s="73" t="s">
         <v>126</v>
       </c>
@@ -5859,7 +6037,7 @@
       </c>
     </row>
     <row r="46" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="81">
+      <c r="A46" s="79">
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="B46" s="50" t="s">
@@ -5999,31 +6177,31 @@
       <c r="H49" s="1">
         <v>0.49</v>
       </c>
-      <c r="I49" s="84">
+      <c r="I49" s="1">
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="J49" s="1">
         <v>0.29499999999999998</v>
       </c>
-      <c r="K49" s="84">
+      <c r="K49" s="1">
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="L49" s="1">
         <v>0.313</v>
       </c>
-      <c r="M49" s="84">
+      <c r="M49" s="1">
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="N49" s="1">
         <v>0.33700000000000002</v>
       </c>
-      <c r="O49" s="83">
+      <c r="O49" s="81">
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="P49" s="1">
         <v>0.99</v>
       </c>
-      <c r="Q49" s="83">
+      <c r="Q49" s="81">
         <v>0.03</v>
       </c>
       <c r="R49" s="1">
@@ -6044,7 +6222,7 @@
       <c r="F50" s="1">
         <v>0.54100000000000004</v>
       </c>
-      <c r="G50" s="84">
+      <c r="G50" s="1">
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="H50" s="1">
@@ -6260,7 +6438,7 @@
       <c r="P55" s="1">
         <v>0.98</v>
       </c>
-      <c r="Q55" s="83">
+      <c r="Q55" s="81">
         <v>0.02</v>
       </c>
       <c r="R55" s="1">
@@ -6479,7 +6657,7 @@
       <c r="H61" s="1">
         <v>0.51500000000000001</v>
       </c>
-      <c r="I61" s="83">
+      <c r="I61" s="81">
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="J61" s="1">
@@ -6491,13 +6669,13 @@
       <c r="L61" s="1">
         <v>0.34499999999999997</v>
       </c>
-      <c r="M61" s="83">
+      <c r="M61" s="81">
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="N61" s="1">
         <v>0.36399999999999999</v>
       </c>
-      <c r="O61" s="83">
+      <c r="O61" s="81">
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="P61" s="1">
@@ -6673,21 +6851,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
     <mergeCell ref="F45:G45"/>
     <mergeCell ref="H45:I45"/>
     <mergeCell ref="J45:K45"/>
     <mergeCell ref="L45:M45"/>
     <mergeCell ref="N45:O45"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6698,7 +6876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E9E1036-E2B2-4563-874C-E78B14076BFB}">
   <dimension ref="A2:AB100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
@@ -6730,7 +6908,7 @@
     </row>
     <row r="3" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:25" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="78" t="s">
         <v>73</v>
       </c>
       <c r="B4" s="63" t="s">
@@ -6741,26 +6919,26 @@
       <c r="E4" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="78" t="s">
+      <c r="F4" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78" t="s">
+      <c r="G4" s="92"/>
+      <c r="H4" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="I4" s="92"/>
+      <c r="J4" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78" t="s">
+      <c r="K4" s="92"/>
+      <c r="L4" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="M4" s="78"/>
-      <c r="N4" s="78" t="s">
+      <c r="M4" s="92"/>
+      <c r="N4" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="O4" s="78"/>
+      <c r="O4" s="92"/>
       <c r="P4" s="73" t="s">
         <v>126</v>
       </c>
@@ -6776,7 +6954,7 @@
       <c r="U4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="V4" s="87" t="s">
+      <c r="V4" s="84" t="s">
         <v>11</v>
       </c>
       <c r="W4" s="71" t="s">
@@ -6788,7 +6966,7 @@
       <c r="Y4" s="19"/>
     </row>
     <row r="5" spans="1:25" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="81">
+      <c r="A5" s="79">
         <v>0.12</v>
       </c>
       <c r="B5" s="50" t="s">
@@ -6934,7 +7112,7 @@
       <c r="W7" s="3">
         <v>353</v>
       </c>
-      <c r="X7" s="86">
+      <c r="X7" s="83">
         <v>9.7500000000000003E-2</v>
       </c>
       <c r="Y7" t="s">
@@ -7035,7 +7213,7 @@
       <c r="K9" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="L9" s="83">
+      <c r="L9" s="81">
         <v>0.51100000000000001</v>
       </c>
       <c r="M9" s="1">
@@ -7061,7 +7239,7 @@
       <c r="C10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="91">
+      <c r="D10" s="85">
         <v>800</v>
       </c>
       <c r="E10" s="34" t="s">
@@ -7121,12 +7299,12 @@
       <c r="D11" s="47">
         <v>347</v>
       </c>
-      <c r="F11" s="94" t="s">
+      <c r="F11" s="88" t="s">
         <v>141</v>
       </c>
-      <c r="G11" s="95"/>
-      <c r="H11" s="95"/>
-      <c r="I11" s="95"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="89"/>
       <c r="U11" s="3" t="s">
         <v>14</v>
       </c>
@@ -7243,31 +7421,31 @@
       <c r="F14" s="1">
         <v>0.245</v>
       </c>
-      <c r="G14" s="83">
+      <c r="G14" s="81">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H14" s="1">
         <v>0.48</v>
       </c>
-      <c r="I14" s="83">
+      <c r="I14" s="81">
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="J14" s="1">
         <v>0.27100000000000002</v>
       </c>
-      <c r="K14" s="83">
+      <c r="K14" s="81">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="L14" s="1">
         <v>0.29699999999999999</v>
       </c>
-      <c r="M14" s="83">
+      <c r="M14" s="81">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="N14" s="1">
         <v>0.32400000000000001</v>
       </c>
-      <c r="O14" s="83">
+      <c r="O14" s="81">
         <v>0.01</v>
       </c>
       <c r="P14" s="1">
@@ -7308,7 +7486,7 @@
       <c r="K15" s="1">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="L15" s="84">
+      <c r="L15" s="1">
         <v>0.496</v>
       </c>
       <c r="M15" s="1">
@@ -7341,7 +7519,7 @@
       <c r="C16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="93">
+      <c r="D16" s="87">
         <v>1200</v>
       </c>
       <c r="E16" s="34" t="s">
@@ -7380,7 +7558,7 @@
       <c r="P16" s="9">
         <v>0</v>
       </c>
-      <c r="Q16" s="96">
+      <c r="Q16" s="90">
         <v>0.72</v>
       </c>
       <c r="R16" s="9">
@@ -7400,15 +7578,15 @@
       <c r="D17" s="47">
         <v>347</v>
       </c>
-      <c r="F17" s="94" t="s">
+      <c r="F17" s="88" t="s">
         <v>142</v>
       </c>
-      <c r="G17" s="95"/>
-      <c r="H17" s="95"/>
-      <c r="I17" s="95"/>
-      <c r="J17" s="95"/>
-      <c r="K17" s="95"/>
-      <c r="L17" s="95"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="89"/>
+      <c r="J17" s="89"/>
+      <c r="K17" s="89"/>
+      <c r="L17" s="89"/>
       <c r="U17" s="3" t="s">
         <v>93</v>
       </c>
@@ -7701,26 +7879,26 @@
       <c r="E31" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="78" t="s">
+      <c r="F31" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="G31" s="78"/>
-      <c r="H31" s="78" t="s">
+      <c r="G31" s="92"/>
+      <c r="H31" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="I31" s="78"/>
-      <c r="J31" s="78" t="s">
+      <c r="I31" s="92"/>
+      <c r="J31" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="K31" s="78"/>
-      <c r="L31" s="78" t="s">
+      <c r="K31" s="92"/>
+      <c r="L31" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="M31" s="78"/>
-      <c r="N31" s="78" t="s">
+      <c r="M31" s="92"/>
+      <c r="N31" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="O31" s="78"/>
+      <c r="O31" s="92"/>
       <c r="P31" s="73" t="s">
         <v>126</v>
       </c>
@@ -7813,20 +7991,6 @@
       <c r="E34" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="F34" s="84"/>
-      <c r="G34" s="84"/>
-      <c r="H34" s="84"/>
-      <c r="I34" s="84"/>
-      <c r="J34" s="84"/>
-      <c r="K34" s="84"/>
-      <c r="L34" s="84"/>
-      <c r="M34" s="84"/>
-      <c r="N34" s="84"/>
-      <c r="O34" s="84"/>
-      <c r="P34" s="84"/>
-      <c r="Q34" s="84"/>
-      <c r="R34" s="84"/>
-      <c r="S34" s="88"/>
     </row>
     <row r="35" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
@@ -7839,20 +8003,6 @@
       <c r="E35" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="F35" s="84"/>
-      <c r="G35" s="84"/>
-      <c r="H35" s="84"/>
-      <c r="I35" s="84"/>
-      <c r="J35" s="84"/>
-      <c r="K35" s="84"/>
-      <c r="L35" s="84"/>
-      <c r="M35" s="84"/>
-      <c r="N35" s="84"/>
-      <c r="O35" s="84"/>
-      <c r="P35" s="84"/>
-      <c r="Q35" s="84"/>
-      <c r="R35" s="84"/>
-      <c r="S35" s="88"/>
     </row>
     <row r="36" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C36" s="2" t="s">
@@ -7864,20 +8014,6 @@
       <c r="E36" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="F36" s="84"/>
-      <c r="G36" s="84"/>
-      <c r="H36" s="84"/>
-      <c r="I36" s="84"/>
-      <c r="J36" s="84"/>
-      <c r="K36" s="84"/>
-      <c r="L36" s="84"/>
-      <c r="M36" s="84"/>
-      <c r="N36" s="84"/>
-      <c r="O36" s="84"/>
-      <c r="P36" s="84"/>
-      <c r="Q36" s="84"/>
-      <c r="R36" s="84"/>
-      <c r="S36" s="88"/>
     </row>
     <row r="37" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C37" s="2" t="s">
@@ -7902,7 +8038,6 @@
       <c r="P37" s="9"/>
       <c r="Q37" s="9"/>
       <c r="R37" s="9"/>
-      <c r="S37" s="88"/>
     </row>
     <row r="38" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C38" s="2" t="s">
@@ -7911,20 +8046,6 @@
       <c r="D38" s="47">
         <v>352</v>
       </c>
-      <c r="F38" s="84"/>
-      <c r="G38" s="84"/>
-      <c r="H38" s="84"/>
-      <c r="I38" s="84"/>
-      <c r="J38" s="84"/>
-      <c r="K38" s="84"/>
-      <c r="L38" s="84"/>
-      <c r="M38" s="84"/>
-      <c r="N38" s="84"/>
-      <c r="O38" s="84"/>
-      <c r="P38" s="84"/>
-      <c r="Q38" s="84"/>
-      <c r="R38" s="84"/>
-      <c r="S38" s="88"/>
     </row>
     <row r="39" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
@@ -7933,20 +8054,20 @@
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
       <c r="E39" s="45"/>
-      <c r="F39" s="89"/>
-      <c r="G39" s="89"/>
-      <c r="H39" s="89"/>
-      <c r="I39" s="89"/>
-      <c r="J39" s="89"/>
-      <c r="K39" s="89"/>
-      <c r="L39" s="89"/>
-      <c r="M39" s="89"/>
-      <c r="N39" s="89"/>
-      <c r="O39" s="89"/>
-      <c r="P39" s="89"/>
-      <c r="Q39" s="89"/>
-      <c r="R39" s="89"/>
-      <c r="S39" s="89"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="16"/>
+      <c r="R39" s="16"/>
+      <c r="S39" s="16"/>
     </row>
     <row r="40" spans="1:23" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
@@ -7961,23 +8082,10 @@
       <c r="E40" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="F40" s="84"/>
-      <c r="G40" s="84"/>
-      <c r="H40" s="84"/>
-      <c r="I40" s="84"/>
-      <c r="J40" s="84"/>
-      <c r="K40" s="84"/>
-      <c r="L40" s="84"/>
-      <c r="M40" s="84"/>
-      <c r="N40" s="84"/>
-      <c r="O40" s="84"/>
-      <c r="P40" s="84"/>
-      <c r="Q40" s="84"/>
-      <c r="R40" s="84"/>
-      <c r="S40" s="84"/>
+      <c r="S40" s="1"/>
     </row>
     <row r="41" spans="1:23" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A41" s="80" t="s">
+      <c r="A41" s="78" t="s">
         <v>78</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -7989,23 +8097,10 @@
       <c r="E41" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="F41" s="84"/>
-      <c r="G41" s="84"/>
-      <c r="H41" s="84"/>
-      <c r="I41" s="84"/>
-      <c r="J41" s="84"/>
-      <c r="K41" s="84"/>
-      <c r="L41" s="84"/>
-      <c r="M41" s="84"/>
-      <c r="N41" s="84"/>
-      <c r="O41" s="84"/>
-      <c r="P41" s="84"/>
-      <c r="Q41" s="84"/>
-      <c r="R41" s="84"/>
-      <c r="S41" s="84"/>
+      <c r="S41" s="1"/>
     </row>
     <row r="42" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="81">
+      <c r="A42" s="79">
         <v>9.7500000000000003E-2</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -8017,20 +8112,7 @@
       <c r="E42" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="F42" s="84"/>
-      <c r="G42" s="84"/>
-      <c r="H42" s="84"/>
-      <c r="I42" s="84"/>
-      <c r="J42" s="84"/>
-      <c r="K42" s="84"/>
-      <c r="L42" s="84"/>
-      <c r="M42" s="84"/>
-      <c r="N42" s="84"/>
-      <c r="O42" s="84"/>
-      <c r="P42" s="84"/>
-      <c r="Q42" s="84"/>
-      <c r="R42" s="84"/>
-      <c r="S42" s="84"/>
+      <c r="S42" s="1"/>
     </row>
     <row r="43" spans="1:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C43" s="2" t="s">
@@ -8055,7 +8137,7 @@
       <c r="P43" s="9"/>
       <c r="Q43" s="64"/>
       <c r="R43" s="9"/>
-      <c r="S43" s="84"/>
+      <c r="S43" s="1"/>
       <c r="V43"/>
       <c r="W43"/>
     </row>
@@ -8067,20 +8149,11 @@
         <v>352</v>
       </c>
       <c r="E44" s="34"/>
-      <c r="F44" s="84"/>
-      <c r="G44" s="84"/>
-      <c r="H44" s="84"/>
-      <c r="I44" s="84"/>
-      <c r="J44" s="84"/>
-      <c r="K44" s="84"/>
-      <c r="L44" s="84"/>
-      <c r="M44" s="84"/>
-      <c r="N44" s="82"/>
-      <c r="O44" s="82"/>
-      <c r="P44" s="84"/>
-      <c r="Q44" s="82"/>
-      <c r="R44" s="82"/>
-      <c r="S44" s="84"/>
+      <c r="N44" s="80"/>
+      <c r="O44" s="80"/>
+      <c r="Q44" s="80"/>
+      <c r="R44" s="80"/>
+      <c r="S44" s="1"/>
       <c r="V44"/>
       <c r="W44"/>
     </row>
@@ -8091,20 +8164,20 @@
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
       <c r="E45" s="45"/>
-      <c r="F45" s="89"/>
-      <c r="G45" s="89"/>
-      <c r="H45" s="89"/>
-      <c r="I45" s="89"/>
-      <c r="J45" s="89"/>
-      <c r="K45" s="89"/>
-      <c r="L45" s="89"/>
-      <c r="M45" s="89"/>
-      <c r="N45" s="89"/>
-      <c r="O45" s="89"/>
-      <c r="P45" s="89"/>
-      <c r="Q45" s="89"/>
-      <c r="R45" s="89"/>
-      <c r="S45" s="89"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
+      <c r="N45" s="16"/>
+      <c r="O45" s="16"/>
+      <c r="P45" s="16"/>
+      <c r="Q45" s="16"/>
+      <c r="R45" s="16"/>
+      <c r="S45" s="16"/>
       <c r="V45"/>
       <c r="W45"/>
     </row>
@@ -8121,20 +8194,7 @@
       <c r="E46" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="F46" s="84"/>
-      <c r="G46" s="84"/>
-      <c r="H46" s="84"/>
-      <c r="I46" s="84"/>
-      <c r="J46" s="84"/>
-      <c r="K46" s="84"/>
-      <c r="L46" s="84"/>
-      <c r="M46" s="84"/>
-      <c r="N46" s="84"/>
-      <c r="O46" s="84"/>
-      <c r="P46" s="84"/>
-      <c r="Q46" s="84"/>
-      <c r="R46" s="84"/>
-      <c r="S46" s="84"/>
+      <c r="S46" s="1"/>
       <c r="V46"/>
       <c r="W46"/>
     </row>
@@ -8148,20 +8208,8 @@
       <c r="E47" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="F47" s="84"/>
-      <c r="G47" s="84"/>
-      <c r="H47" s="84"/>
-      <c r="I47" s="84"/>
-      <c r="J47" s="84"/>
-      <c r="K47" s="84"/>
-      <c r="L47" s="84"/>
-      <c r="M47" s="84"/>
-      <c r="N47" s="84"/>
-      <c r="O47" s="84"/>
-      <c r="P47" s="82"/>
-      <c r="Q47" s="84"/>
-      <c r="R47" s="84"/>
-      <c r="S47" s="84"/>
+      <c r="P47" s="80"/>
+      <c r="S47" s="1"/>
       <c r="V47"/>
       <c r="W47"/>
     </row>
@@ -8175,20 +8223,7 @@
       <c r="E48" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="F48" s="84"/>
-      <c r="G48" s="84"/>
-      <c r="H48" s="84"/>
-      <c r="I48" s="84"/>
-      <c r="J48" s="84"/>
-      <c r="K48" s="84"/>
-      <c r="L48" s="84"/>
-      <c r="M48" s="84"/>
-      <c r="N48" s="84"/>
-      <c r="O48" s="84"/>
-      <c r="P48" s="84"/>
-      <c r="Q48" s="84"/>
-      <c r="R48" s="84"/>
-      <c r="S48" s="84"/>
+      <c r="S48" s="1"/>
       <c r="V48"/>
       <c r="W48"/>
     </row>
@@ -8205,17 +8240,17 @@
       <c r="F49" s="9"/>
       <c r="G49" s="64"/>
       <c r="H49" s="9"/>
-      <c r="I49" s="85"/>
+      <c r="I49" s="82"/>
       <c r="J49" s="9"/>
       <c r="K49" s="64"/>
       <c r="L49" s="9"/>
-      <c r="M49" s="85"/>
+      <c r="M49" s="82"/>
       <c r="N49" s="9"/>
-      <c r="O49" s="85"/>
-      <c r="P49" s="85"/>
+      <c r="O49" s="82"/>
+      <c r="P49" s="82"/>
       <c r="Q49" s="9"/>
       <c r="R49" s="9"/>
-      <c r="S49" s="84"/>
+      <c r="S49" s="1"/>
       <c r="U49" s="1"/>
       <c r="V49" s="41"/>
       <c r="W49" s="41"/>
@@ -8233,20 +8268,20 @@
         <v>352</v>
       </c>
       <c r="E50" s="2"/>
-      <c r="F50" s="90"/>
-      <c r="G50" s="90"/>
-      <c r="H50" s="90"/>
-      <c r="I50" s="90"/>
-      <c r="J50" s="90"/>
-      <c r="K50" s="90"/>
-      <c r="L50" s="90"/>
-      <c r="M50" s="90"/>
-      <c r="N50" s="90"/>
-      <c r="O50" s="90"/>
-      <c r="P50" s="90"/>
-      <c r="Q50" s="90"/>
-      <c r="R50" s="90"/>
-      <c r="S50" s="90"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
       <c r="U50" s="1"/>
       <c r="V50" s="41"/>
       <c r="W50" s="41"/>
@@ -8276,26 +8311,26 @@
       <c r="E52" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="78" t="s">
+      <c r="F52" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="G52" s="78"/>
-      <c r="H52" s="78" t="s">
+      <c r="G52" s="92"/>
+      <c r="H52" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="I52" s="78"/>
-      <c r="J52" s="78" t="s">
+      <c r="I52" s="92"/>
+      <c r="J52" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="K52" s="78"/>
-      <c r="L52" s="78" t="s">
+      <c r="K52" s="92"/>
+      <c r="L52" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="M52" s="78"/>
-      <c r="N52" s="78" t="s">
+      <c r="M52" s="92"/>
+      <c r="N52" s="92" t="s">
         <v>70</v>
       </c>
-      <c r="O52" s="78"/>
+      <c r="O52" s="92"/>
       <c r="P52" s="73" t="s">
         <v>126</v>
       </c>
@@ -8399,11 +8434,8 @@
       <c r="E56" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="I56" s="84"/>
-      <c r="K56" s="84"/>
-      <c r="M56" s="84"/>
-      <c r="O56" s="83"/>
-      <c r="Q56" s="83"/>
+      <c r="O56" s="81"/>
+      <c r="Q56" s="81"/>
       <c r="S56" s="1"/>
     </row>
     <row r="57" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8416,7 +8448,6 @@
       <c r="E57" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="G57" s="84"/>
       <c r="S57" s="1"/>
     </row>
     <row r="58" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8490,7 +8521,7 @@
       <c r="S61" s="1"/>
     </row>
     <row r="62" spans="1:28" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A62" s="80" t="s">
+      <c r="A62" s="78" t="s">
         <v>81</v>
       </c>
       <c r="C62" s="2" t="s">
@@ -8502,11 +8533,11 @@
       <c r="E62" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="Q62" s="83"/>
+      <c r="Q62" s="81"/>
       <c r="S62" s="1"/>
     </row>
     <row r="63" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="81">
+      <c r="A63" s="79">
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -8606,9 +8637,9 @@
       <c r="E68" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="I68" s="83"/>
-      <c r="M68" s="83"/>
-      <c r="O68" s="83"/>
+      <c r="I68" s="81"/>
+      <c r="M68" s="81"/>
+      <c r="O68" s="81"/>
       <c r="Q68" s="7"/>
       <c r="S68" s="1"/>
     </row>
@@ -8716,21 +8747,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
     <mergeCell ref="F52:G52"/>
     <mergeCell ref="H52:I52"/>
     <mergeCell ref="J52:K52"/>
     <mergeCell ref="L52:M52"/>
     <mergeCell ref="N52:O52"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="N31:O31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8738,6 +8769,5514 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18F43D7E-547A-4930-A757-185D801B1857}">
+  <dimension ref="A1:AM61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A1" s="93" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="P1" s="96" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q1" s="96" t="s">
+        <v>167</v>
+      </c>
+      <c r="R1" s="96" t="s">
+        <v>168</v>
+      </c>
+      <c r="S1" s="96" t="s">
+        <v>169</v>
+      </c>
+      <c r="T1" s="96" t="s">
+        <v>145</v>
+      </c>
+      <c r="U1" s="96" t="s">
+        <v>146</v>
+      </c>
+      <c r="V1" s="96" t="s">
+        <v>170</v>
+      </c>
+      <c r="W1" s="96" t="s">
+        <v>88</v>
+      </c>
+      <c r="X1" s="96" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y1" s="96" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z1" s="96" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA1" s="96" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB1" s="96" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC1" s="96" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD1" s="96" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE1" s="96" t="s">
+        <v>175</v>
+      </c>
+      <c r="AF1" s="96" t="s">
+        <v>163</v>
+      </c>
+      <c r="AG1" s="96" t="s">
+        <v>164</v>
+      </c>
+      <c r="AH1" s="96" t="s">
+        <v>157</v>
+      </c>
+      <c r="AI1" s="96" t="s">
+        <v>158</v>
+      </c>
+      <c r="AJ1" s="96" t="s">
+        <v>159</v>
+      </c>
+      <c r="AK1" s="96" t="s">
+        <v>160</v>
+      </c>
+      <c r="AL1" s="96" t="s">
+        <v>161</v>
+      </c>
+      <c r="AM1" s="96" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J2" t="s">
+        <v>150</v>
+      </c>
+      <c r="K2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L2" t="s">
+        <v>152</v>
+      </c>
+      <c r="P2" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>178</v>
+      </c>
+      <c r="R2">
+        <v>1200</v>
+      </c>
+      <c r="S2">
+        <v>347</v>
+      </c>
+      <c r="T2" s="20">
+        <v>45065</v>
+      </c>
+      <c r="U2" s="95">
+        <v>0.42329861111111117</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>153</v>
+      </c>
+      <c r="X2" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y2">
+        <v>0.11</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>1200</v>
+      </c>
+      <c r="AC2">
+        <v>20</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>20</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>0.5</v>
+      </c>
+      <c r="AH2">
+        <v>0.25</v>
+      </c>
+      <c r="AI2">
+        <v>0.5</v>
+      </c>
+      <c r="AJ2">
+        <v>0.27777777777777701</v>
+      </c>
+      <c r="AK2">
+        <v>0.30487804878048702</v>
+      </c>
+      <c r="AL2">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A3" s="20">
+        <v>45064</v>
+      </c>
+      <c r="B3" s="95">
+        <v>0.9003472222222223</v>
+      </c>
+      <c r="C3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3">
+        <v>1E-3</v>
+      </c>
+      <c r="E3">
+        <v>0.05</v>
+      </c>
+      <c r="F3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G3">
+        <v>0.11</v>
+      </c>
+      <c r="H3">
+        <v>1200</v>
+      </c>
+      <c r="I3" s="94">
+        <v>347</v>
+      </c>
+      <c r="J3" t="s">
+        <v>155</v>
+      </c>
+      <c r="K3">
+        <v>40</v>
+      </c>
+      <c r="L3" t="s">
+        <v>156</v>
+      </c>
+      <c r="P3" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>178</v>
+      </c>
+      <c r="R3">
+        <v>1200</v>
+      </c>
+      <c r="S3">
+        <v>347</v>
+      </c>
+      <c r="T3" s="20">
+        <v>45065</v>
+      </c>
+      <c r="U3" s="95">
+        <v>0.42329861111111117</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3" t="s">
+        <v>153</v>
+      </c>
+      <c r="X3" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y3">
+        <v>0.11</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>1200</v>
+      </c>
+      <c r="AC3">
+        <v>20</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>20</v>
+      </c>
+      <c r="AF3">
+        <v>1</v>
+      </c>
+      <c r="AG3">
+        <v>0.5</v>
+      </c>
+      <c r="AH3">
+        <v>0.25</v>
+      </c>
+      <c r="AI3">
+        <v>0.5</v>
+      </c>
+      <c r="AJ3">
+        <v>0.27777777777777701</v>
+      </c>
+      <c r="AK3">
+        <v>0.30487804878048702</v>
+      </c>
+      <c r="AL3">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="P4" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>178</v>
+      </c>
+      <c r="R4">
+        <v>1200</v>
+      </c>
+      <c r="S4">
+        <v>347</v>
+      </c>
+      <c r="T4" s="20">
+        <v>45065</v>
+      </c>
+      <c r="U4" s="95">
+        <v>0.42329861111111117</v>
+      </c>
+      <c r="V4">
+        <v>2</v>
+      </c>
+      <c r="W4" t="s">
+        <v>153</v>
+      </c>
+      <c r="X4" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y4">
+        <v>0.11</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>1200</v>
+      </c>
+      <c r="AC4">
+        <v>20</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>20</v>
+      </c>
+      <c r="AF4">
+        <v>1</v>
+      </c>
+      <c r="AG4">
+        <v>0.5</v>
+      </c>
+      <c r="AH4">
+        <v>0.25</v>
+      </c>
+      <c r="AI4">
+        <v>0.5</v>
+      </c>
+      <c r="AJ4">
+        <v>0.27777777777777701</v>
+      </c>
+      <c r="AK4">
+        <v>0.30487804878048702</v>
+      </c>
+      <c r="AL4">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B5" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="K5" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="L5" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="M5" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="N5" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="P5" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>178</v>
+      </c>
+      <c r="R5">
+        <v>1200</v>
+      </c>
+      <c r="S5">
+        <v>347</v>
+      </c>
+      <c r="T5" s="20">
+        <v>45065</v>
+      </c>
+      <c r="U5" s="95">
+        <v>0.42329861111111117</v>
+      </c>
+      <c r="V5">
+        <v>3</v>
+      </c>
+      <c r="W5" t="s">
+        <v>153</v>
+      </c>
+      <c r="X5" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y5">
+        <v>0.11</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>1200</v>
+      </c>
+      <c r="AC5">
+        <v>20</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>20</v>
+      </c>
+      <c r="AF5">
+        <v>0.9</v>
+      </c>
+      <c r="AG5">
+        <v>0.45</v>
+      </c>
+      <c r="AH5">
+        <v>0.76315789473684204</v>
+      </c>
+      <c r="AI5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AJ5">
+        <v>0.46926910299003299</v>
+      </c>
+      <c r="AK5">
+        <v>0.43518341155061702</v>
+      </c>
+      <c r="AL5">
+        <v>0.43573667711598701</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B6" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="J6" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="K6" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="L6" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="M6" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="N6" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="P6" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>178</v>
+      </c>
+      <c r="R6">
+        <v>1200</v>
+      </c>
+      <c r="S6">
+        <v>347</v>
+      </c>
+      <c r="T6" s="20">
+        <v>45065</v>
+      </c>
+      <c r="U6" s="95">
+        <v>0.42329861111111117</v>
+      </c>
+      <c r="V6">
+        <v>4</v>
+      </c>
+      <c r="W6" t="s">
+        <v>153</v>
+      </c>
+      <c r="X6" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y6">
+        <v>0.11</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>1200</v>
+      </c>
+      <c r="AC6">
+        <v>20</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>20</v>
+      </c>
+      <c r="AF6">
+        <v>1</v>
+      </c>
+      <c r="AG6">
+        <v>0.5</v>
+      </c>
+      <c r="AH6">
+        <v>0.25</v>
+      </c>
+      <c r="AI6">
+        <v>0.5</v>
+      </c>
+      <c r="AJ6">
+        <v>0.27777777777777701</v>
+      </c>
+      <c r="AK6">
+        <v>0.30487804878048702</v>
+      </c>
+      <c r="AL6">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="P7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>178</v>
+      </c>
+      <c r="R7">
+        <v>1200</v>
+      </c>
+      <c r="S7">
+        <v>800</v>
+      </c>
+      <c r="T7" s="20">
+        <v>45064</v>
+      </c>
+      <c r="U7" s="95">
+        <v>0.91313657407407411</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>153</v>
+      </c>
+      <c r="X7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y7">
+        <v>0.11</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>1200</v>
+      </c>
+      <c r="AC7">
+        <v>20</v>
+      </c>
+      <c r="AD7">
+        <v>0.6</v>
+      </c>
+      <c r="AE7">
+        <v>20</v>
+      </c>
+      <c r="AF7">
+        <v>0.2</v>
+      </c>
+      <c r="AG7">
+        <v>0.4</v>
+      </c>
+      <c r="AH7">
+        <v>0.61904761904761896</v>
+      </c>
+      <c r="AI7">
+        <v>0.6</v>
+      </c>
+      <c r="AJ7">
+        <v>0.59714795008912602</v>
+      </c>
+      <c r="AK7">
+        <v>0.58728854188069302</v>
+      </c>
+      <c r="AL7">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.316</v>
+      </c>
+      <c r="G8" s="1">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="I8" s="1">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="K8" s="1">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="P8" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>178</v>
+      </c>
+      <c r="R8">
+        <v>1200</v>
+      </c>
+      <c r="S8">
+        <v>800</v>
+      </c>
+      <c r="T8" s="20">
+        <v>45064</v>
+      </c>
+      <c r="U8" s="95">
+        <v>0.91313657407407411</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8" t="s">
+        <v>153</v>
+      </c>
+      <c r="X8" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y8">
+        <v>0.11</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>1200</v>
+      </c>
+      <c r="AC8">
+        <v>20</v>
+      </c>
+      <c r="AD8">
+        <v>0.7</v>
+      </c>
+      <c r="AE8">
+        <v>20</v>
+      </c>
+      <c r="AF8">
+        <v>0.45</v>
+      </c>
+      <c r="AG8">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="AH8">
+        <v>0.42</v>
+      </c>
+      <c r="AI8">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="AJ8">
+        <v>0.41666666666666602</v>
+      </c>
+      <c r="AK8">
+        <v>0.41564039408866899</v>
+      </c>
+      <c r="AL8">
+        <v>0.41587301587301501</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="G9" s="1">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="I9" s="1">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="K9" s="1">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="P9" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>178</v>
+      </c>
+      <c r="R9">
+        <v>1200</v>
+      </c>
+      <c r="S9">
+        <v>800</v>
+      </c>
+      <c r="T9" s="20">
+        <v>45064</v>
+      </c>
+      <c r="U9" s="95">
+        <v>0.91313657407407411</v>
+      </c>
+      <c r="V9">
+        <v>2</v>
+      </c>
+      <c r="W9" t="s">
+        <v>153</v>
+      </c>
+      <c r="X9" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y9">
+        <v>0.11</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>1200</v>
+      </c>
+      <c r="AC9">
+        <v>20</v>
+      </c>
+      <c r="AD9">
+        <v>0.65</v>
+      </c>
+      <c r="AE9">
+        <v>20</v>
+      </c>
+      <c r="AF9">
+        <v>0.25</v>
+      </c>
+      <c r="AG9">
+        <v>0.45</v>
+      </c>
+      <c r="AH9">
+        <v>0.55952380952380898</v>
+      </c>
+      <c r="AI9">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AJ9">
+        <v>0.54144385026737896</v>
+      </c>
+      <c r="AK9">
+        <v>0.53378193274433205</v>
+      </c>
+      <c r="AL9">
+        <v>0.53125</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.501</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="1">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.497</v>
+      </c>
+      <c r="G10" s="1">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.495</v>
+      </c>
+      <c r="I10" s="1">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.495</v>
+      </c>
+      <c r="K10" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P10" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>178</v>
+      </c>
+      <c r="R10">
+        <v>1200</v>
+      </c>
+      <c r="S10">
+        <v>800</v>
+      </c>
+      <c r="T10" s="20">
+        <v>45064</v>
+      </c>
+      <c r="U10" s="95">
+        <v>0.91313657407407411</v>
+      </c>
+      <c r="V10">
+        <v>3</v>
+      </c>
+      <c r="W10" t="s">
+        <v>153</v>
+      </c>
+      <c r="X10" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y10">
+        <v>0.11</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>1200</v>
+      </c>
+      <c r="AC10">
+        <v>20</v>
+      </c>
+      <c r="AD10">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AE10">
+        <v>20</v>
+      </c>
+      <c r="AF10">
+        <v>0.25</v>
+      </c>
+      <c r="AG10">
+        <v>0.4</v>
+      </c>
+      <c r="AH10">
+        <v>0.60989010989010894</v>
+      </c>
+      <c r="AI10">
+        <v>0.6</v>
+      </c>
+      <c r="AJ10">
+        <v>0.59847198641765698</v>
+      </c>
+      <c r="AK10">
+        <v>0.59306266197089497</v>
+      </c>
+      <c r="AL10">
+        <v>0.59079283887468004</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P11" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>178</v>
+      </c>
+      <c r="R11">
+        <v>1200</v>
+      </c>
+      <c r="S11">
+        <v>800</v>
+      </c>
+      <c r="T11" s="20">
+        <v>45064</v>
+      </c>
+      <c r="U11" s="95">
+        <v>0.91313657407407411</v>
+      </c>
+      <c r="V11">
+        <v>4</v>
+      </c>
+      <c r="W11" t="s">
+        <v>153</v>
+      </c>
+      <c r="X11" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y11">
+        <v>0.11</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>1200</v>
+      </c>
+      <c r="AC11">
+        <v>20</v>
+      </c>
+      <c r="AD11">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AE11">
+        <v>20</v>
+      </c>
+      <c r="AF11">
+        <v>0.4</v>
+      </c>
+      <c r="AG11">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="AH11">
+        <v>0.52557544757033203</v>
+      </c>
+      <c r="AI11">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="AJ11">
+        <v>0.52353896103896103</v>
+      </c>
+      <c r="AK11">
+        <v>0.52261643304696004</v>
+      </c>
+      <c r="AL11">
+        <v>0.52231301068510305</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="P12" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>178</v>
+      </c>
+      <c r="R12">
+        <v>1400</v>
+      </c>
+      <c r="S12">
+        <v>800</v>
+      </c>
+      <c r="T12" s="20">
+        <v>45065</v>
+      </c>
+      <c r="U12" s="95">
+        <v>9.8611111111111104E-3</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>153</v>
+      </c>
+      <c r="X12" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y12">
+        <v>0.11</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>1400</v>
+      </c>
+      <c r="AC12">
+        <v>20</v>
+      </c>
+      <c r="AD12">
+        <v>0.6</v>
+      </c>
+      <c r="AE12">
+        <v>20</v>
+      </c>
+      <c r="AF12">
+        <v>0.5</v>
+      </c>
+      <c r="AG12">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AH12">
+        <v>0.449494949494949</v>
+      </c>
+      <c r="AI12">
+        <v>0.45</v>
+      </c>
+      <c r="AJ12">
+        <v>0.44887278582930701</v>
+      </c>
+      <c r="AK12">
+        <v>0.44863761969025101</v>
+      </c>
+      <c r="AL12">
+        <v>0.44862155388471098</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" t="s">
+        <v>147</v>
+      </c>
+      <c r="F13" t="s">
+        <v>148</v>
+      </c>
+      <c r="G13" t="s">
+        <v>149</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>90</v>
+      </c>
+      <c r="J13" t="s">
+        <v>150</v>
+      </c>
+      <c r="K13" t="s">
+        <v>151</v>
+      </c>
+      <c r="L13" t="s">
+        <v>152</v>
+      </c>
+      <c r="P13" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>178</v>
+      </c>
+      <c r="R13">
+        <v>1400</v>
+      </c>
+      <c r="S13">
+        <v>800</v>
+      </c>
+      <c r="T13" s="20">
+        <v>45065</v>
+      </c>
+      <c r="U13" s="95">
+        <v>9.8611111111111104E-3</v>
+      </c>
+      <c r="V13">
+        <v>1</v>
+      </c>
+      <c r="W13" t="s">
+        <v>153</v>
+      </c>
+      <c r="X13" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y13">
+        <v>0.11</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>1400</v>
+      </c>
+      <c r="AC13">
+        <v>20</v>
+      </c>
+      <c r="AD13">
+        <v>0.6</v>
+      </c>
+      <c r="AE13">
+        <v>20</v>
+      </c>
+      <c r="AF13">
+        <v>0.5</v>
+      </c>
+      <c r="AG13">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AH13">
+        <v>0.449494949494949</v>
+      </c>
+      <c r="AI13">
+        <v>0.45</v>
+      </c>
+      <c r="AJ13">
+        <v>0.44887278582930701</v>
+      </c>
+      <c r="AK13">
+        <v>0.44863761969025101</v>
+      </c>
+      <c r="AL13">
+        <v>0.44862155388471098</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A14" s="20">
+        <v>45064</v>
+      </c>
+      <c r="B14" s="95">
+        <v>0.90841435185185182</v>
+      </c>
+      <c r="C14" t="s">
+        <v>153</v>
+      </c>
+      <c r="D14">
+        <v>1E-3</v>
+      </c>
+      <c r="E14">
+        <v>0.05</v>
+      </c>
+      <c r="F14" t="s">
+        <v>154</v>
+      </c>
+      <c r="G14">
+        <v>0.11</v>
+      </c>
+      <c r="H14">
+        <v>1200</v>
+      </c>
+      <c r="I14" s="94">
+        <v>800</v>
+      </c>
+      <c r="J14" t="s">
+        <v>155</v>
+      </c>
+      <c r="K14">
+        <v>40</v>
+      </c>
+      <c r="L14" t="s">
+        <v>156</v>
+      </c>
+      <c r="P14" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>178</v>
+      </c>
+      <c r="R14">
+        <v>1400</v>
+      </c>
+      <c r="S14">
+        <v>800</v>
+      </c>
+      <c r="T14" s="20">
+        <v>45065</v>
+      </c>
+      <c r="U14" s="95">
+        <v>9.8611111111111104E-3</v>
+      </c>
+      <c r="V14">
+        <v>2</v>
+      </c>
+      <c r="W14" t="s">
+        <v>153</v>
+      </c>
+      <c r="X14" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y14">
+        <v>0.11</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>1400</v>
+      </c>
+      <c r="AC14">
+        <v>20</v>
+      </c>
+      <c r="AD14">
+        <v>0.25</v>
+      </c>
+      <c r="AE14">
+        <v>20</v>
+      </c>
+      <c r="AF14">
+        <v>0.65</v>
+      </c>
+      <c r="AG14">
+        <v>0.45</v>
+      </c>
+      <c r="AH14">
+        <v>0.55952380952380898</v>
+      </c>
+      <c r="AI14">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AJ14">
+        <v>0.54144385026737896</v>
+      </c>
+      <c r="AK14">
+        <v>0.53378193274433205</v>
+      </c>
+      <c r="AL14">
+        <v>0.53125</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="P15" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>178</v>
+      </c>
+      <c r="R15">
+        <v>1400</v>
+      </c>
+      <c r="S15">
+        <v>800</v>
+      </c>
+      <c r="T15" s="20">
+        <v>45065</v>
+      </c>
+      <c r="U15" s="95">
+        <v>9.8726851851851857E-3</v>
+      </c>
+      <c r="V15">
+        <v>3</v>
+      </c>
+      <c r="W15" t="s">
+        <v>153</v>
+      </c>
+      <c r="X15" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y15">
+        <v>0.11</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>1400</v>
+      </c>
+      <c r="AC15">
+        <v>20</v>
+      </c>
+      <c r="AD15">
+        <v>0.35</v>
+      </c>
+      <c r="AE15">
+        <v>20</v>
+      </c>
+      <c r="AF15">
+        <v>0.4</v>
+      </c>
+      <c r="AG15">
+        <v>0.375</v>
+      </c>
+      <c r="AH15">
+        <v>0.62531328320802004</v>
+      </c>
+      <c r="AI15">
+        <v>0.625</v>
+      </c>
+      <c r="AJ15">
+        <v>0.625</v>
+      </c>
+      <c r="AK15">
+        <v>0.62483983599205495</v>
+      </c>
+      <c r="AL15">
+        <v>0.62476547842401498</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B16" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="G16" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="H16" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="I16" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="J16" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="K16" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="L16" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="M16" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="N16" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="P16" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>178</v>
+      </c>
+      <c r="R16">
+        <v>1400</v>
+      </c>
+      <c r="S16">
+        <v>800</v>
+      </c>
+      <c r="T16" s="20">
+        <v>45065</v>
+      </c>
+      <c r="U16" s="95">
+        <v>9.8726851851851857E-3</v>
+      </c>
+      <c r="V16">
+        <v>4</v>
+      </c>
+      <c r="W16" t="s">
+        <v>153</v>
+      </c>
+      <c r="X16" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y16">
+        <v>0.11</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>1400</v>
+      </c>
+      <c r="AC16">
+        <v>20</v>
+      </c>
+      <c r="AD16">
+        <v>0.5</v>
+      </c>
+      <c r="AE16">
+        <v>20</v>
+      </c>
+      <c r="AF16">
+        <v>0.35</v>
+      </c>
+      <c r="AG16">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="AH16">
+        <v>0.57672634271099699</v>
+      </c>
+      <c r="AI16">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="AJ16">
+        <v>0.57426948051948001</v>
+      </c>
+      <c r="AK16">
+        <v>0.57308151928170004</v>
+      </c>
+      <c r="AL16">
+        <v>0.57259585166561899</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B17" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="G17" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="H17" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="I17" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="J17" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="K17" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="L17" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="M17" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="N17" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="P17" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>178</v>
+      </c>
+      <c r="R17">
+        <v>1200</v>
+      </c>
+      <c r="S17">
+        <v>347</v>
+      </c>
+      <c r="T17" s="20">
+        <v>45065</v>
+      </c>
+      <c r="U17" s="95">
+        <v>0.42329861111111117</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>153</v>
+      </c>
+      <c r="X17" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y17">
+        <v>0.11</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB17">
+        <v>1200</v>
+      </c>
+      <c r="AC17">
+        <v>20</v>
+      </c>
+      <c r="AD17">
+        <v>1</v>
+      </c>
+      <c r="AE17">
+        <v>20</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0.5</v>
+      </c>
+      <c r="AH17">
+        <v>0.25</v>
+      </c>
+      <c r="AI17">
+        <v>0.5</v>
+      </c>
+      <c r="AJ17">
+        <v>0.27777777777777701</v>
+      </c>
+      <c r="AK17">
+        <v>0.30487804878048702</v>
+      </c>
+      <c r="AL17">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>178</v>
+      </c>
+      <c r="R18">
+        <v>1200</v>
+      </c>
+      <c r="S18">
+        <v>347</v>
+      </c>
+      <c r="T18" s="20">
+        <v>45065</v>
+      </c>
+      <c r="U18" s="95">
+        <v>0.42329861111111117</v>
+      </c>
+      <c r="V18">
+        <v>1</v>
+      </c>
+      <c r="W18" t="s">
+        <v>153</v>
+      </c>
+      <c r="X18" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y18">
+        <v>0.11</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB18">
+        <v>1200</v>
+      </c>
+      <c r="AC18">
+        <v>20</v>
+      </c>
+      <c r="AD18">
+        <v>1</v>
+      </c>
+      <c r="AE18">
+        <v>20</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0.5</v>
+      </c>
+      <c r="AH18">
+        <v>0.25</v>
+      </c>
+      <c r="AI18">
+        <v>0.5</v>
+      </c>
+      <c r="AJ18">
+        <v>0.27777777777777701</v>
+      </c>
+      <c r="AK18">
+        <v>0.30487804878048702</v>
+      </c>
+      <c r="AL18">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.54679999999999995</v>
+      </c>
+      <c r="C19" s="1">
+        <v>8.0500000000000002E-2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="E19" s="1">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.53549999999999998</v>
+      </c>
+      <c r="G19" s="1">
+        <v>7.4300000000000005E-2</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.53049999999999997</v>
+      </c>
+      <c r="I19" s="1">
+        <v>7.1400000000000005E-2</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.52869999999999995</v>
+      </c>
+      <c r="K19" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="P19" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>178</v>
+      </c>
+      <c r="R19">
+        <v>1200</v>
+      </c>
+      <c r="S19">
+        <v>347</v>
+      </c>
+      <c r="T19" s="20">
+        <v>45065</v>
+      </c>
+      <c r="U19" s="95">
+        <v>0.42329861111111117</v>
+      </c>
+      <c r="V19">
+        <v>2</v>
+      </c>
+      <c r="W19" t="s">
+        <v>153</v>
+      </c>
+      <c r="X19" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y19">
+        <v>0.11</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB19">
+        <v>1200</v>
+      </c>
+      <c r="AC19">
+        <v>20</v>
+      </c>
+      <c r="AD19">
+        <v>1</v>
+      </c>
+      <c r="AE19">
+        <v>20</v>
+      </c>
+      <c r="AF19">
+        <v>0.05</v>
+      </c>
+      <c r="AG19">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="AH19">
+        <v>0.243589743589743</v>
+      </c>
+      <c r="AI19">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="AJ19">
+        <v>0.26988636363636298</v>
+      </c>
+      <c r="AK19">
+        <v>0.29539800995024801</v>
+      </c>
+      <c r="AL19">
+        <v>0.322033898305084</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.2306</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="E20" s="1">
+        <v>3.3500000000000002E-2</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.31090000000000001</v>
+      </c>
+      <c r="G20" s="1">
+        <v>6.1100000000000002E-2</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.32219999999999999</v>
+      </c>
+      <c r="I20" s="1">
+        <v>4.24E-2</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0.3427</v>
+      </c>
+      <c r="K20" s="1">
+        <v>3.5499999999999997E-2</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="P20" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>178</v>
+      </c>
+      <c r="R20">
+        <v>1200</v>
+      </c>
+      <c r="S20">
+        <v>347</v>
+      </c>
+      <c r="T20" s="20">
+        <v>45065</v>
+      </c>
+      <c r="U20" s="95">
+        <v>0.42329861111111117</v>
+      </c>
+      <c r="V20">
+        <v>3</v>
+      </c>
+      <c r="W20" t="s">
+        <v>153</v>
+      </c>
+      <c r="X20" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y20">
+        <v>0.11</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB20">
+        <v>1200</v>
+      </c>
+      <c r="AC20">
+        <v>20</v>
+      </c>
+      <c r="AD20">
+        <v>0.9</v>
+      </c>
+      <c r="AE20">
+        <v>20</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0.45</v>
+      </c>
+      <c r="AH20">
+        <v>0.76315789473684204</v>
+      </c>
+      <c r="AI20">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AJ20">
+        <v>0.46926910299003299</v>
+      </c>
+      <c r="AK20">
+        <v>0.43518341155061702</v>
+      </c>
+      <c r="AL20">
+        <v>0.43573667711598701</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.45850000000000002</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.10349999999999999</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="E21" s="1">
+        <v>9.7799999999999998E-2</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.45479999999999998</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.1007</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.45340000000000003</v>
+      </c>
+      <c r="I21" s="1">
+        <v>9.9099999999999994E-2</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0.45319999999999999</v>
+      </c>
+      <c r="K21" s="1">
+        <v>9.8100000000000007E-2</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="P21" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>178</v>
+      </c>
+      <c r="R21">
+        <v>1200</v>
+      </c>
+      <c r="S21">
+        <v>347</v>
+      </c>
+      <c r="T21" s="20">
+        <v>45065</v>
+      </c>
+      <c r="U21" s="95">
+        <v>0.42329861111111117</v>
+      </c>
+      <c r="V21">
+        <v>4</v>
+      </c>
+      <c r="W21" t="s">
+        <v>153</v>
+      </c>
+      <c r="X21" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y21">
+        <v>0.11</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB21">
+        <v>1200</v>
+      </c>
+      <c r="AC21">
+        <v>20</v>
+      </c>
+      <c r="AD21">
+        <v>0.95</v>
+      </c>
+      <c r="AE21">
+        <v>20</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="AH21">
+        <v>0.75641025641025605</v>
+      </c>
+      <c r="AI21">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="AJ21">
+        <v>0.38825757575757502</v>
+      </c>
+      <c r="AK21">
+        <v>0.374720783835922</v>
+      </c>
+      <c r="AL21">
+        <v>0.38660209846650501</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.60519999999999996</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2.0899999999999998E-2</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.37780000000000002</v>
+      </c>
+      <c r="G22" s="1">
+        <v>6.8500000000000005E-2</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="I22" s="1">
+        <v>4.6399999999999997E-2</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0.3831</v>
+      </c>
+      <c r="K22" s="1">
+        <v>3.6700000000000003E-2</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="P22" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>178</v>
+      </c>
+      <c r="R22">
+        <v>1200</v>
+      </c>
+      <c r="S22">
+        <v>800</v>
+      </c>
+      <c r="T22" s="20">
+        <v>45064</v>
+      </c>
+      <c r="U22" s="95">
+        <v>0.91313657407407411</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>153</v>
+      </c>
+      <c r="X22" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y22">
+        <v>0.11</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB22">
+        <v>1200</v>
+      </c>
+      <c r="AC22">
+        <v>20</v>
+      </c>
+      <c r="AD22">
+        <v>0.95</v>
+      </c>
+      <c r="AE22">
+        <v>20</v>
+      </c>
+      <c r="AF22">
+        <v>0.05</v>
+      </c>
+      <c r="AG22">
+        <v>0.5</v>
+      </c>
+      <c r="AH22">
+        <v>0.5</v>
+      </c>
+      <c r="AI22">
+        <v>0.5</v>
+      </c>
+      <c r="AJ22">
+        <v>0.36544850498338799</v>
+      </c>
+      <c r="AK22">
+        <v>0.360358203237237</v>
+      </c>
+      <c r="AL22">
+        <v>0.37304075235109702</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="P23" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>178</v>
+      </c>
+      <c r="R23">
+        <v>1200</v>
+      </c>
+      <c r="S23">
+        <v>800</v>
+      </c>
+      <c r="T23" s="20">
+        <v>45064</v>
+      </c>
+      <c r="U23" s="95">
+        <v>0.91313657407407411</v>
+      </c>
+      <c r="V23">
+        <v>1</v>
+      </c>
+      <c r="W23" t="s">
+        <v>153</v>
+      </c>
+      <c r="X23" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y23">
+        <v>0.11</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB23">
+        <v>1200</v>
+      </c>
+      <c r="AC23">
+        <v>20</v>
+      </c>
+      <c r="AD23">
+        <v>1</v>
+      </c>
+      <c r="AE23">
+        <v>20</v>
+      </c>
+      <c r="AF23">
+        <v>0.1</v>
+      </c>
+      <c r="AG23">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AH23">
+        <v>0.23684210526315699</v>
+      </c>
+      <c r="AI23">
+        <v>0.45</v>
+      </c>
+      <c r="AJ23">
+        <v>0.26162790697674398</v>
+      </c>
+      <c r="AK23">
+        <v>0.28553299492385698</v>
+      </c>
+      <c r="AL23">
+        <v>0.31034482758620602</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>145</v>
+      </c>
+      <c r="B24" t="s">
+        <v>146</v>
+      </c>
+      <c r="C24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" t="s">
+        <v>147</v>
+      </c>
+      <c r="F24" t="s">
+        <v>148</v>
+      </c>
+      <c r="G24" t="s">
+        <v>149</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>90</v>
+      </c>
+      <c r="J24" t="s">
+        <v>150</v>
+      </c>
+      <c r="K24" t="s">
+        <v>151</v>
+      </c>
+      <c r="L24" t="s">
+        <v>152</v>
+      </c>
+      <c r="P24" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>178</v>
+      </c>
+      <c r="R24">
+        <v>1200</v>
+      </c>
+      <c r="S24">
+        <v>800</v>
+      </c>
+      <c r="T24" s="20">
+        <v>45064</v>
+      </c>
+      <c r="U24" s="95">
+        <v>0.91313657407407411</v>
+      </c>
+      <c r="V24">
+        <v>2</v>
+      </c>
+      <c r="W24" t="s">
+        <v>153</v>
+      </c>
+      <c r="X24" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y24">
+        <v>0.11</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB24">
+        <v>1200</v>
+      </c>
+      <c r="AC24">
+        <v>20</v>
+      </c>
+      <c r="AD24">
+        <v>1</v>
+      </c>
+      <c r="AE24">
+        <v>20</v>
+      </c>
+      <c r="AF24">
+        <v>0.1</v>
+      </c>
+      <c r="AG24">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AH24">
+        <v>0.23684210526315699</v>
+      </c>
+      <c r="AI24">
+        <v>0.45</v>
+      </c>
+      <c r="AJ24">
+        <v>0.26162790697674398</v>
+      </c>
+      <c r="AK24">
+        <v>0.28553299492385698</v>
+      </c>
+      <c r="AL24">
+        <v>0.31034482758620602</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A25" s="20">
+        <v>45064</v>
+      </c>
+      <c r="B25" s="95">
+        <v>0.99918981481481473</v>
+      </c>
+      <c r="C25" t="s">
+        <v>153</v>
+      </c>
+      <c r="D25">
+        <v>1E-3</v>
+      </c>
+      <c r="E25">
+        <v>0.05</v>
+      </c>
+      <c r="F25" t="s">
+        <v>154</v>
+      </c>
+      <c r="G25">
+        <v>0.11</v>
+      </c>
+      <c r="H25" s="94">
+        <v>1400</v>
+      </c>
+      <c r="I25" s="94">
+        <v>800</v>
+      </c>
+      <c r="J25" t="s">
+        <v>155</v>
+      </c>
+      <c r="K25">
+        <v>40</v>
+      </c>
+      <c r="L25" t="s">
+        <v>156</v>
+      </c>
+      <c r="P25" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>178</v>
+      </c>
+      <c r="R25">
+        <v>1200</v>
+      </c>
+      <c r="S25">
+        <v>800</v>
+      </c>
+      <c r="T25" s="20">
+        <v>45064</v>
+      </c>
+      <c r="U25" s="95">
+        <v>0.91313657407407411</v>
+      </c>
+      <c r="V25">
+        <v>3</v>
+      </c>
+      <c r="W25" t="s">
+        <v>153</v>
+      </c>
+      <c r="X25" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y25">
+        <v>0.11</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB25">
+        <v>1200</v>
+      </c>
+      <c r="AC25">
+        <v>20</v>
+      </c>
+      <c r="AD25">
+        <v>0.95</v>
+      </c>
+      <c r="AE25">
+        <v>20</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="AH25">
+        <v>0.75641025641025605</v>
+      </c>
+      <c r="AI25">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="AJ25">
+        <v>0.38825757575757502</v>
+      </c>
+      <c r="AK25">
+        <v>0.374720783835922</v>
+      </c>
+      <c r="AL25">
+        <v>0.38660209846650501</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="P26" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>178</v>
+      </c>
+      <c r="R26">
+        <v>1200</v>
+      </c>
+      <c r="S26">
+        <v>800</v>
+      </c>
+      <c r="T26" s="20">
+        <v>45064</v>
+      </c>
+      <c r="U26" s="95">
+        <v>0.91313657407407411</v>
+      </c>
+      <c r="V26">
+        <v>4</v>
+      </c>
+      <c r="W26" t="s">
+        <v>153</v>
+      </c>
+      <c r="X26" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y26">
+        <v>0.11</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB26">
+        <v>1200</v>
+      </c>
+      <c r="AC26">
+        <v>20</v>
+      </c>
+      <c r="AD26">
+        <v>1</v>
+      </c>
+      <c r="AE26">
+        <v>20</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>0.5</v>
+      </c>
+      <c r="AH26">
+        <v>0.25</v>
+      </c>
+      <c r="AI26">
+        <v>0.5</v>
+      </c>
+      <c r="AJ26">
+        <v>0.27777777777777701</v>
+      </c>
+      <c r="AK26">
+        <v>0.30487804878048702</v>
+      </c>
+      <c r="AL26">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B27" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="E27" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="F27" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="G27" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="H27" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="I27" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="J27" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="K27" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="L27" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="M27" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="N27" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="P27" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>178</v>
+      </c>
+      <c r="R27">
+        <v>1400</v>
+      </c>
+      <c r="S27">
+        <v>800</v>
+      </c>
+      <c r="T27" s="20">
+        <v>45065</v>
+      </c>
+      <c r="U27" s="95">
+        <v>9.8726851851851857E-3</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>153</v>
+      </c>
+      <c r="X27" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y27">
+        <v>0.11</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB27">
+        <v>1400</v>
+      </c>
+      <c r="AC27">
+        <v>20</v>
+      </c>
+      <c r="AD27">
+        <v>1</v>
+      </c>
+      <c r="AE27">
+        <v>20</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>0.5</v>
+      </c>
+      <c r="AH27">
+        <v>0.25</v>
+      </c>
+      <c r="AI27">
+        <v>0.5</v>
+      </c>
+      <c r="AJ27">
+        <v>0.27777777777777701</v>
+      </c>
+      <c r="AK27">
+        <v>0.30487804878048702</v>
+      </c>
+      <c r="AL27">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B28" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="E28" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="F28" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="G28" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="H28" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="I28" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="J28" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="K28" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="L28" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="M28" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="N28" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="P28" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>178</v>
+      </c>
+      <c r="R28">
+        <v>1400</v>
+      </c>
+      <c r="S28">
+        <v>800</v>
+      </c>
+      <c r="T28" s="20">
+        <v>45065</v>
+      </c>
+      <c r="U28" s="95">
+        <v>9.8726851851851857E-3</v>
+      </c>
+      <c r="V28">
+        <v>1</v>
+      </c>
+      <c r="W28" t="s">
+        <v>153</v>
+      </c>
+      <c r="X28" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y28">
+        <v>0.11</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB28">
+        <v>1400</v>
+      </c>
+      <c r="AC28">
+        <v>20</v>
+      </c>
+      <c r="AD28">
+        <v>0.95</v>
+      </c>
+      <c r="AE28">
+        <v>20</v>
+      </c>
+      <c r="AF28">
+        <v>0.05</v>
+      </c>
+      <c r="AG28">
+        <v>0.5</v>
+      </c>
+      <c r="AH28">
+        <v>0.5</v>
+      </c>
+      <c r="AI28">
+        <v>0.5</v>
+      </c>
+      <c r="AJ28">
+        <v>0.36544850498338799</v>
+      </c>
+      <c r="AK28">
+        <v>0.360358203237237</v>
+      </c>
+      <c r="AL28">
+        <v>0.37304075235109702</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="P29" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>178</v>
+      </c>
+      <c r="R29">
+        <v>1400</v>
+      </c>
+      <c r="S29">
+        <v>800</v>
+      </c>
+      <c r="T29" s="20">
+        <v>45065</v>
+      </c>
+      <c r="U29" s="95">
+        <v>9.8726851851851857E-3</v>
+      </c>
+      <c r="V29">
+        <v>2</v>
+      </c>
+      <c r="W29" t="s">
+        <v>153</v>
+      </c>
+      <c r="X29" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y29">
+        <v>0.11</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB29">
+        <v>1400</v>
+      </c>
+      <c r="AC29">
+        <v>20</v>
+      </c>
+      <c r="AD29">
+        <v>1</v>
+      </c>
+      <c r="AE29">
+        <v>20</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>0.5</v>
+      </c>
+      <c r="AH29">
+        <v>0.25</v>
+      </c>
+      <c r="AI29">
+        <v>0.5</v>
+      </c>
+      <c r="AJ29">
+        <v>0.27777777777777701</v>
+      </c>
+      <c r="AK29">
+        <v>0.30487804878048702</v>
+      </c>
+      <c r="AL29">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.53210000000000002</v>
+      </c>
+      <c r="C30" s="1">
+        <v>7.9200000000000007E-2</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="E30" s="1">
+        <v>7.7899999999999997E-2</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0.52769999999999995</v>
+      </c>
+      <c r="G30" s="1">
+        <v>7.7899999999999997E-2</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0.52580000000000005</v>
+      </c>
+      <c r="I30" s="1">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="J30" s="1">
+        <v>0.5252</v>
+      </c>
+      <c r="K30" s="1">
+        <v>7.7299999999999994E-2</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="M30" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="P30" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>178</v>
+      </c>
+      <c r="R30">
+        <v>1400</v>
+      </c>
+      <c r="S30">
+        <v>800</v>
+      </c>
+      <c r="T30" s="20">
+        <v>45065</v>
+      </c>
+      <c r="U30" s="95">
+        <v>9.8726851851851857E-3</v>
+      </c>
+      <c r="V30">
+        <v>3</v>
+      </c>
+      <c r="W30" t="s">
+        <v>153</v>
+      </c>
+      <c r="X30" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y30">
+        <v>0.11</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB30">
+        <v>1400</v>
+      </c>
+      <c r="AC30">
+        <v>20</v>
+      </c>
+      <c r="AD30">
+        <v>1</v>
+      </c>
+      <c r="AE30">
+        <v>20</v>
+      </c>
+      <c r="AF30">
+        <v>0.05</v>
+      </c>
+      <c r="AG30">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="AH30">
+        <v>0.243589743589743</v>
+      </c>
+      <c r="AI30">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="AJ30">
+        <v>0.26988636363636298</v>
+      </c>
+      <c r="AK30">
+        <v>0.29539800995024801</v>
+      </c>
+      <c r="AL30">
+        <v>0.322033898305084</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.29870000000000002</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.11260000000000001</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.495</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1.12E-2</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0.29370000000000002</v>
+      </c>
+      <c r="G31" s="1">
+        <v>4.02E-2</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0.31409999999999999</v>
+      </c>
+      <c r="I31" s="1">
+        <v>2.6200000000000001E-2</v>
+      </c>
+      <c r="J31" s="1">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="K31" s="1">
+        <v>1.9599999999999999E-2</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="M31" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="N31" s="1">
+        <v>0.505</v>
+      </c>
+      <c r="P31" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>178</v>
+      </c>
+      <c r="R31">
+        <v>1400</v>
+      </c>
+      <c r="S31">
+        <v>800</v>
+      </c>
+      <c r="T31" s="20">
+        <v>45065</v>
+      </c>
+      <c r="U31" s="95">
+        <v>9.8726851851851857E-3</v>
+      </c>
+      <c r="V31">
+        <v>4</v>
+      </c>
+      <c r="W31" t="s">
+        <v>153</v>
+      </c>
+      <c r="X31" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y31">
+        <v>0.11</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB31">
+        <v>1400</v>
+      </c>
+      <c r="AC31">
+        <v>20</v>
+      </c>
+      <c r="AD31">
+        <v>1</v>
+      </c>
+      <c r="AE31">
+        <v>20</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <v>0.5</v>
+      </c>
+      <c r="AH31">
+        <v>0.25</v>
+      </c>
+      <c r="AI31">
+        <v>0.5</v>
+      </c>
+      <c r="AJ31">
+        <v>0.27777777777777701</v>
+      </c>
+      <c r="AK31">
+        <v>0.30487804878048702</v>
+      </c>
+      <c r="AL31">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.50670000000000004</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0.12870000000000001</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0.505</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0.1217</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0.50239999999999996</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0.1249</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0.50049999999999994</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0.1229</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0.49990000000000001</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0.1217</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="N32" s="1">
+        <v>0.495</v>
+      </c>
+      <c r="P32" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>178</v>
+      </c>
+      <c r="R32">
+        <v>1200</v>
+      </c>
+      <c r="S32">
+        <v>347</v>
+      </c>
+      <c r="T32" s="20">
+        <v>45065</v>
+      </c>
+      <c r="U32" s="95">
+        <v>0.42329861111111117</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>153</v>
+      </c>
+      <c r="X32" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y32">
+        <v>0.11</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB32">
+        <v>1200</v>
+      </c>
+      <c r="AC32">
+        <v>20</v>
+      </c>
+      <c r="AD32">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AE32">
+        <v>20</v>
+      </c>
+      <c r="AF32">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AG32">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AH32">
+        <v>0.45</v>
+      </c>
+      <c r="AI32">
+        <v>0.45</v>
+      </c>
+      <c r="AJ32">
+        <v>0.45</v>
+      </c>
+      <c r="AK32">
+        <v>0.45</v>
+      </c>
+      <c r="AL32">
+        <v>0.45</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.27779999999999999</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0.3049</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0</v>
+      </c>
+      <c r="M33" s="1">
+        <v>1</v>
+      </c>
+      <c r="N33" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P33" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>178</v>
+      </c>
+      <c r="R33">
+        <v>1200</v>
+      </c>
+      <c r="S33">
+        <v>347</v>
+      </c>
+      <c r="T33" s="20">
+        <v>45065</v>
+      </c>
+      <c r="U33" s="95">
+        <v>0.42329861111111117</v>
+      </c>
+      <c r="V33">
+        <v>1</v>
+      </c>
+      <c r="W33" t="s">
+        <v>153</v>
+      </c>
+      <c r="X33" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y33">
+        <v>0.11</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB33">
+        <v>1200</v>
+      </c>
+      <c r="AC33">
+        <v>20</v>
+      </c>
+      <c r="AD33">
+        <v>0.45</v>
+      </c>
+      <c r="AE33">
+        <v>20</v>
+      </c>
+      <c r="AF33">
+        <v>0.4</v>
+      </c>
+      <c r="AG33">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="AH33">
+        <v>0.57518796992481103</v>
+      </c>
+      <c r="AI33">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="AJ33">
+        <v>0.57491987179487103</v>
+      </c>
+      <c r="AK33">
+        <v>0.57478858350951301</v>
+      </c>
+      <c r="AL33">
+        <v>0.57473420888055005</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="P34" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>178</v>
+      </c>
+      <c r="R34">
+        <v>1200</v>
+      </c>
+      <c r="S34">
+        <v>347</v>
+      </c>
+      <c r="T34" s="20">
+        <v>45065</v>
+      </c>
+      <c r="U34" s="95">
+        <v>0.42329861111111117</v>
+      </c>
+      <c r="V34">
+        <v>2</v>
+      </c>
+      <c r="W34" t="s">
+        <v>153</v>
+      </c>
+      <c r="X34" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y34">
+        <v>0.11</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB34">
+        <v>1200</v>
+      </c>
+      <c r="AC34">
+        <v>20</v>
+      </c>
+      <c r="AD34">
+        <v>0.45</v>
+      </c>
+      <c r="AE34">
+        <v>20</v>
+      </c>
+      <c r="AF34">
+        <v>0.6</v>
+      </c>
+      <c r="AG34">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="AH34">
+        <v>0.47442455242966702</v>
+      </c>
+      <c r="AI34">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="AJ34">
+        <v>0.47280844155844098</v>
+      </c>
+      <c r="AK34">
+        <v>0.47215134681222098</v>
+      </c>
+      <c r="AL34">
+        <v>0.472030169704588</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="P35" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>178</v>
+      </c>
+      <c r="R35">
+        <v>1200</v>
+      </c>
+      <c r="S35">
+        <v>347</v>
+      </c>
+      <c r="T35" s="20">
+        <v>45065</v>
+      </c>
+      <c r="U35" s="95">
+        <v>0.42329861111111117</v>
+      </c>
+      <c r="V35">
+        <v>3</v>
+      </c>
+      <c r="W35" t="s">
+        <v>153</v>
+      </c>
+      <c r="X35" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y35">
+        <v>0.11</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB35">
+        <v>1200</v>
+      </c>
+      <c r="AC35">
+        <v>20</v>
+      </c>
+      <c r="AD35">
+        <v>0.45</v>
+      </c>
+      <c r="AE35">
+        <v>20</v>
+      </c>
+      <c r="AF35">
+        <v>0.7</v>
+      </c>
+      <c r="AG35">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="AH35">
+        <v>0.42</v>
+      </c>
+      <c r="AI35">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="AJ35">
+        <v>0.41666666666666602</v>
+      </c>
+      <c r="AK35">
+        <v>0.41564039408866899</v>
+      </c>
+      <c r="AL35">
+        <v>0.41587301587301501</v>
+      </c>
+      <c r="AM35" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="P36" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>178</v>
+      </c>
+      <c r="R36">
+        <v>1200</v>
+      </c>
+      <c r="S36">
+        <v>347</v>
+      </c>
+      <c r="T36" s="20">
+        <v>45065</v>
+      </c>
+      <c r="U36" s="95">
+        <v>0.42329861111111117</v>
+      </c>
+      <c r="V36">
+        <v>4</v>
+      </c>
+      <c r="W36" t="s">
+        <v>153</v>
+      </c>
+      <c r="X36" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y36">
+        <v>0.11</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB36">
+        <v>1200</v>
+      </c>
+      <c r="AC36">
+        <v>20</v>
+      </c>
+      <c r="AD36">
+        <v>0.25</v>
+      </c>
+      <c r="AE36">
+        <v>20</v>
+      </c>
+      <c r="AF36">
+        <v>0.6</v>
+      </c>
+      <c r="AG36">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="AH36">
+        <v>0.58547008547008506</v>
+      </c>
+      <c r="AI36">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="AJ36">
+        <v>0.57074652777777701</v>
+      </c>
+      <c r="AK36">
+        <v>0.56410450778249399</v>
+      </c>
+      <c r="AL36">
+        <v>0.56157317859445499</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="P37" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>178</v>
+      </c>
+      <c r="R37">
+        <v>1200</v>
+      </c>
+      <c r="S37">
+        <v>800</v>
+      </c>
+      <c r="T37" s="20">
+        <v>45064</v>
+      </c>
+      <c r="U37" s="95">
+        <v>0.91313657407407411</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>153</v>
+      </c>
+      <c r="X37" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y37">
+        <v>0.11</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB37">
+        <v>1200</v>
+      </c>
+      <c r="AC37">
+        <v>20</v>
+      </c>
+      <c r="AD37">
+        <v>0.6</v>
+      </c>
+      <c r="AE37">
+        <v>20</v>
+      </c>
+      <c r="AF37">
+        <v>0.6</v>
+      </c>
+      <c r="AG37">
+        <v>0.6</v>
+      </c>
+      <c r="AH37">
+        <v>0.4</v>
+      </c>
+      <c r="AI37">
+        <v>0.4</v>
+      </c>
+      <c r="AJ37">
+        <v>0.4</v>
+      </c>
+      <c r="AK37">
+        <v>0.4</v>
+      </c>
+      <c r="AL37">
+        <v>0.4</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="P38" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>178</v>
+      </c>
+      <c r="R38">
+        <v>1200</v>
+      </c>
+      <c r="S38">
+        <v>800</v>
+      </c>
+      <c r="T38" s="20">
+        <v>45064</v>
+      </c>
+      <c r="U38" s="95">
+        <v>0.91313657407407411</v>
+      </c>
+      <c r="V38">
+        <v>1</v>
+      </c>
+      <c r="W38" t="s">
+        <v>153</v>
+      </c>
+      <c r="X38" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y38">
+        <v>0.11</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB38">
+        <v>1200</v>
+      </c>
+      <c r="AC38">
+        <v>20</v>
+      </c>
+      <c r="AD38">
+        <v>0.75</v>
+      </c>
+      <c r="AE38">
+        <v>20</v>
+      </c>
+      <c r="AF38">
+        <v>0.45</v>
+      </c>
+      <c r="AG38">
+        <v>0.6</v>
+      </c>
+      <c r="AH38">
+        <v>0.39010989010989</v>
+      </c>
+      <c r="AI38">
+        <v>0.4</v>
+      </c>
+      <c r="AJ38">
+        <v>0.38624787775891301</v>
+      </c>
+      <c r="AK38">
+        <v>0.38540766828360601</v>
+      </c>
+      <c r="AL38">
+        <v>0.38618925831202</v>
+      </c>
+      <c r="AM38" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="P39" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>178</v>
+      </c>
+      <c r="R39">
+        <v>1200</v>
+      </c>
+      <c r="S39">
+        <v>800</v>
+      </c>
+      <c r="T39" s="20">
+        <v>45064</v>
+      </c>
+      <c r="U39" s="95">
+        <v>0.91313657407407411</v>
+      </c>
+      <c r="V39">
+        <v>2</v>
+      </c>
+      <c r="W39" t="s">
+        <v>153</v>
+      </c>
+      <c r="X39" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y39">
+        <v>0.11</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB39">
+        <v>1200</v>
+      </c>
+      <c r="AC39">
+        <v>20</v>
+      </c>
+      <c r="AD39">
+        <v>0.5</v>
+      </c>
+      <c r="AE39">
+        <v>20</v>
+      </c>
+      <c r="AF39">
+        <v>0.25</v>
+      </c>
+      <c r="AG39">
+        <v>0.375</v>
+      </c>
+      <c r="AH39">
+        <v>0.63333333333333297</v>
+      </c>
+      <c r="AI39">
+        <v>0.625</v>
+      </c>
+      <c r="AJ39">
+        <v>0.625</v>
+      </c>
+      <c r="AK39">
+        <v>0.62089490968801297</v>
+      </c>
+      <c r="AL39">
+        <v>0.61904761904761896</v>
+      </c>
+      <c r="AM39" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="P40" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>178</v>
+      </c>
+      <c r="R40">
+        <v>1200</v>
+      </c>
+      <c r="S40">
+        <v>800</v>
+      </c>
+      <c r="T40" s="20">
+        <v>45064</v>
+      </c>
+      <c r="U40" s="95">
+        <v>0.91313657407407411</v>
+      </c>
+      <c r="V40">
+        <v>3</v>
+      </c>
+      <c r="W40" t="s">
+        <v>153</v>
+      </c>
+      <c r="X40" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y40">
+        <v>0.11</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB40">
+        <v>1200</v>
+      </c>
+      <c r="AC40">
+        <v>20</v>
+      </c>
+      <c r="AD40">
+        <v>0.65</v>
+      </c>
+      <c r="AE40">
+        <v>20</v>
+      </c>
+      <c r="AF40">
+        <v>0.4</v>
+      </c>
+      <c r="AG40">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="AH40">
+        <v>0.473333333333333</v>
+      </c>
+      <c r="AI40">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="AJ40">
+        <v>0.46875</v>
+      </c>
+      <c r="AK40">
+        <v>0.46695402298850502</v>
+      </c>
+      <c r="AL40">
+        <v>0.46666666666666601</v>
+      </c>
+      <c r="AM40" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="P41" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>178</v>
+      </c>
+      <c r="R41">
+        <v>1200</v>
+      </c>
+      <c r="S41">
+        <v>800</v>
+      </c>
+      <c r="T41" s="20">
+        <v>45064</v>
+      </c>
+      <c r="U41" s="95">
+        <v>0.91313657407407411</v>
+      </c>
+      <c r="V41">
+        <v>4</v>
+      </c>
+      <c r="W41" t="s">
+        <v>153</v>
+      </c>
+      <c r="X41" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y41">
+        <v>0.11</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB41">
+        <v>1200</v>
+      </c>
+      <c r="AC41">
+        <v>20</v>
+      </c>
+      <c r="AD41">
+        <v>0.7</v>
+      </c>
+      <c r="AE41">
+        <v>20</v>
+      </c>
+      <c r="AF41">
+        <v>0.5</v>
+      </c>
+      <c r="AG41">
+        <v>0.6</v>
+      </c>
+      <c r="AH41">
+        <v>0.39583333333333298</v>
+      </c>
+      <c r="AI41">
+        <v>0.4</v>
+      </c>
+      <c r="AJ41">
+        <v>0.39408866995073899</v>
+      </c>
+      <c r="AK41">
+        <v>0.393649554297612</v>
+      </c>
+      <c r="AL41">
+        <v>0.39393939393939298</v>
+      </c>
+      <c r="AM41" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="P42" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>178</v>
+      </c>
+      <c r="R42">
+        <v>1400</v>
+      </c>
+      <c r="S42">
+        <v>800</v>
+      </c>
+      <c r="T42" s="20">
+        <v>45065</v>
+      </c>
+      <c r="U42" s="95">
+        <v>9.8726851851851857E-3</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>153</v>
+      </c>
+      <c r="X42" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y42">
+        <v>0.11</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB42">
+        <v>1400</v>
+      </c>
+      <c r="AC42">
+        <v>20</v>
+      </c>
+      <c r="AD42">
+        <v>0.6</v>
+      </c>
+      <c r="AE42">
+        <v>20</v>
+      </c>
+      <c r="AF42">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AG42">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="AH42">
+        <v>0.42481203007518797</v>
+      </c>
+      <c r="AI42">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="AJ42">
+        <v>0.424679487179487</v>
+      </c>
+      <c r="AK42">
+        <v>0.42463482606188702</v>
+      </c>
+      <c r="AL42">
+        <v>0.42464040025015598</v>
+      </c>
+      <c r="AM42" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="P43" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>178</v>
+      </c>
+      <c r="R43">
+        <v>1400</v>
+      </c>
+      <c r="S43">
+        <v>800</v>
+      </c>
+      <c r="T43" s="20">
+        <v>45065</v>
+      </c>
+      <c r="U43" s="95">
+        <v>9.8726851851851857E-3</v>
+      </c>
+      <c r="V43">
+        <v>1</v>
+      </c>
+      <c r="W43" t="s">
+        <v>153</v>
+      </c>
+      <c r="X43" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y43">
+        <v>0.11</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB43">
+        <v>1400</v>
+      </c>
+      <c r="AC43">
+        <v>20</v>
+      </c>
+      <c r="AD43">
+        <v>0.7</v>
+      </c>
+      <c r="AE43">
+        <v>20</v>
+      </c>
+      <c r="AF43">
+        <v>0.45</v>
+      </c>
+      <c r="AG43">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="AH43">
+        <v>0.42</v>
+      </c>
+      <c r="AI43">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="AJ43">
+        <v>0.41666666666666602</v>
+      </c>
+      <c r="AK43">
+        <v>0.41564039408866899</v>
+      </c>
+      <c r="AL43">
+        <v>0.41587301587301501</v>
+      </c>
+      <c r="AM43" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="P44" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>178</v>
+      </c>
+      <c r="R44">
+        <v>1400</v>
+      </c>
+      <c r="S44">
+        <v>800</v>
+      </c>
+      <c r="T44" s="20">
+        <v>45065</v>
+      </c>
+      <c r="U44" s="95">
+        <v>9.8726851851851857E-3</v>
+      </c>
+      <c r="V44">
+        <v>2</v>
+      </c>
+      <c r="W44" t="s">
+        <v>153</v>
+      </c>
+      <c r="X44" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y44">
+        <v>0.11</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB44">
+        <v>1400</v>
+      </c>
+      <c r="AC44">
+        <v>20</v>
+      </c>
+      <c r="AD44">
+        <v>0.5</v>
+      </c>
+      <c r="AE44">
+        <v>20</v>
+      </c>
+      <c r="AF44">
+        <v>0.7</v>
+      </c>
+      <c r="AG44">
+        <v>0.6</v>
+      </c>
+      <c r="AH44">
+        <v>0.39583333333333298</v>
+      </c>
+      <c r="AI44">
+        <v>0.4</v>
+      </c>
+      <c r="AJ44">
+        <v>0.39408866995073899</v>
+      </c>
+      <c r="AK44">
+        <v>0.393649554297612</v>
+      </c>
+      <c r="AL44">
+        <v>0.39393939393939298</v>
+      </c>
+      <c r="AM44" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="P45" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>178</v>
+      </c>
+      <c r="R45">
+        <v>1400</v>
+      </c>
+      <c r="S45">
+        <v>800</v>
+      </c>
+      <c r="T45" s="20">
+        <v>45065</v>
+      </c>
+      <c r="U45" s="95">
+        <v>9.8726851851851857E-3</v>
+      </c>
+      <c r="V45">
+        <v>3</v>
+      </c>
+      <c r="W45" t="s">
+        <v>153</v>
+      </c>
+      <c r="X45" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y45">
+        <v>0.11</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB45">
+        <v>1400</v>
+      </c>
+      <c r="AC45">
+        <v>20</v>
+      </c>
+      <c r="AD45">
+        <v>0.2</v>
+      </c>
+      <c r="AE45">
+        <v>20</v>
+      </c>
+      <c r="AF45">
+        <v>0.5</v>
+      </c>
+      <c r="AG45">
+        <v>0.35</v>
+      </c>
+      <c r="AH45">
+        <v>0.66483516483516403</v>
+      </c>
+      <c r="AI45">
+        <v>0.65</v>
+      </c>
+      <c r="AJ45">
+        <v>0.65152801358234202</v>
+      </c>
+      <c r="AK45">
+        <v>0.64497641039271703</v>
+      </c>
+      <c r="AL45">
+        <v>0.64194373401534499</v>
+      </c>
+      <c r="AM45" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="P46" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>178</v>
+      </c>
+      <c r="R46">
+        <v>1400</v>
+      </c>
+      <c r="S46">
+        <v>800</v>
+      </c>
+      <c r="T46" s="20">
+        <v>45065</v>
+      </c>
+      <c r="U46" s="95">
+        <v>9.8726851851851857E-3</v>
+      </c>
+      <c r="V46">
+        <v>4</v>
+      </c>
+      <c r="W46" t="s">
+        <v>153</v>
+      </c>
+      <c r="X46" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y46">
+        <v>0.11</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB46">
+        <v>1400</v>
+      </c>
+      <c r="AC46">
+        <v>20</v>
+      </c>
+      <c r="AD46">
+        <v>0.3</v>
+      </c>
+      <c r="AE46">
+        <v>20</v>
+      </c>
+      <c r="AF46">
+        <v>0.45</v>
+      </c>
+      <c r="AG46">
+        <v>0.375</v>
+      </c>
+      <c r="AH46">
+        <v>0.62787723785166205</v>
+      </c>
+      <c r="AI46">
+        <v>0.625</v>
+      </c>
+      <c r="AJ46">
+        <v>0.625</v>
+      </c>
+      <c r="AK46">
+        <v>0.62354660551643903</v>
+      </c>
+      <c r="AL46">
+        <v>0.62287869264613405</v>
+      </c>
+      <c r="AM46" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="P47" s="96" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q47" s="96" t="s">
+        <v>178</v>
+      </c>
+      <c r="R47" s="96">
+        <v>1200</v>
+      </c>
+      <c r="S47" s="96">
+        <v>347</v>
+      </c>
+      <c r="T47" s="20">
+        <v>45065</v>
+      </c>
+      <c r="U47" s="95">
+        <v>0.4231712962962963</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>153</v>
+      </c>
+      <c r="X47" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y47">
+        <v>0.11</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB47">
+        <v>1200</v>
+      </c>
+      <c r="AC47">
+        <v>20</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>20</v>
+      </c>
+      <c r="AF47">
+        <v>1</v>
+      </c>
+      <c r="AG47">
+        <v>0.5</v>
+      </c>
+      <c r="AH47">
+        <v>0.25</v>
+      </c>
+      <c r="AI47">
+        <v>0.5</v>
+      </c>
+      <c r="AJ47">
+        <v>0.27777777777777701</v>
+      </c>
+      <c r="AK47">
+        <v>0.30487804878048702</v>
+      </c>
+      <c r="AL47">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="AM47" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="P48" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>178</v>
+      </c>
+      <c r="R48">
+        <v>1200</v>
+      </c>
+      <c r="S48">
+        <v>347</v>
+      </c>
+      <c r="T48" s="20">
+        <v>45065</v>
+      </c>
+      <c r="U48" s="95">
+        <v>0.4231712962962963</v>
+      </c>
+      <c r="V48">
+        <v>1</v>
+      </c>
+      <c r="W48" t="s">
+        <v>153</v>
+      </c>
+      <c r="X48" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y48">
+        <v>0.11</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB48">
+        <v>1200</v>
+      </c>
+      <c r="AC48">
+        <v>20</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>20</v>
+      </c>
+      <c r="AF48">
+        <v>1</v>
+      </c>
+      <c r="AG48">
+        <v>0.5</v>
+      </c>
+      <c r="AH48">
+        <v>0.25</v>
+      </c>
+      <c r="AI48">
+        <v>0.5</v>
+      </c>
+      <c r="AJ48">
+        <v>0.27777777777777701</v>
+      </c>
+      <c r="AK48">
+        <v>0.30487804878048702</v>
+      </c>
+      <c r="AL48">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="AM48" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="49" spans="16:39" x14ac:dyDescent="0.25">
+      <c r="P49" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>178</v>
+      </c>
+      <c r="R49">
+        <v>1200</v>
+      </c>
+      <c r="S49">
+        <v>347</v>
+      </c>
+      <c r="T49" s="20">
+        <v>45065</v>
+      </c>
+      <c r="U49" s="95">
+        <v>0.4231712962962963</v>
+      </c>
+      <c r="V49">
+        <v>2</v>
+      </c>
+      <c r="W49" t="s">
+        <v>153</v>
+      </c>
+      <c r="X49" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y49">
+        <v>0.11</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB49">
+        <v>1200</v>
+      </c>
+      <c r="AC49">
+        <v>20</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>20</v>
+      </c>
+      <c r="AF49">
+        <v>1</v>
+      </c>
+      <c r="AG49">
+        <v>0.5</v>
+      </c>
+      <c r="AH49">
+        <v>0.25</v>
+      </c>
+      <c r="AI49">
+        <v>0.5</v>
+      </c>
+      <c r="AJ49">
+        <v>0.27777777777777701</v>
+      </c>
+      <c r="AK49">
+        <v>0.30487804878048702</v>
+      </c>
+      <c r="AL49">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="AM49" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="50" spans="16:39" x14ac:dyDescent="0.25">
+      <c r="P50" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>178</v>
+      </c>
+      <c r="R50">
+        <v>1200</v>
+      </c>
+      <c r="S50">
+        <v>347</v>
+      </c>
+      <c r="T50" s="20">
+        <v>45065</v>
+      </c>
+      <c r="U50" s="95">
+        <v>0.4231712962962963</v>
+      </c>
+      <c r="V50">
+        <v>3</v>
+      </c>
+      <c r="W50" t="s">
+        <v>153</v>
+      </c>
+      <c r="X50" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y50">
+        <v>0.11</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB50">
+        <v>1200</v>
+      </c>
+      <c r="AC50">
+        <v>20</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>20</v>
+      </c>
+      <c r="AF50">
+        <v>1</v>
+      </c>
+      <c r="AG50">
+        <v>0.5</v>
+      </c>
+      <c r="AH50">
+        <v>0.25</v>
+      </c>
+      <c r="AI50">
+        <v>0.5</v>
+      </c>
+      <c r="AJ50">
+        <v>0.27777777777777701</v>
+      </c>
+      <c r="AK50">
+        <v>0.30487804878048702</v>
+      </c>
+      <c r="AL50">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="AM50" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="51" spans="16:39" x14ac:dyDescent="0.25">
+      <c r="P51" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>178</v>
+      </c>
+      <c r="R51">
+        <v>1200</v>
+      </c>
+      <c r="S51">
+        <v>347</v>
+      </c>
+      <c r="T51" s="20">
+        <v>45065</v>
+      </c>
+      <c r="U51" s="95">
+        <v>0.4231712962962963</v>
+      </c>
+      <c r="V51">
+        <v>4</v>
+      </c>
+      <c r="W51" t="s">
+        <v>153</v>
+      </c>
+      <c r="X51" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y51">
+        <v>0.11</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA51" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB51">
+        <v>1200</v>
+      </c>
+      <c r="AC51">
+        <v>20</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>20</v>
+      </c>
+      <c r="AF51">
+        <v>1</v>
+      </c>
+      <c r="AG51">
+        <v>0.5</v>
+      </c>
+      <c r="AH51">
+        <v>0.25</v>
+      </c>
+      <c r="AI51">
+        <v>0.5</v>
+      </c>
+      <c r="AJ51">
+        <v>0.27777777777777701</v>
+      </c>
+      <c r="AK51">
+        <v>0.30487804878048702</v>
+      </c>
+      <c r="AL51">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="AM51" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="52" spans="16:39" x14ac:dyDescent="0.25">
+      <c r="P52" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>178</v>
+      </c>
+      <c r="R52">
+        <v>1200</v>
+      </c>
+      <c r="S52">
+        <v>800</v>
+      </c>
+      <c r="T52" s="20">
+        <v>45064</v>
+      </c>
+      <c r="U52" s="95">
+        <v>0.91306712962962966</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>153</v>
+      </c>
+      <c r="X52" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y52">
+        <v>0.11</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB52">
+        <v>1200</v>
+      </c>
+      <c r="AC52">
+        <v>20</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>20</v>
+      </c>
+      <c r="AF52">
+        <v>0.9</v>
+      </c>
+      <c r="AG52">
+        <v>0.45</v>
+      </c>
+      <c r="AH52">
+        <v>0.76315789473684204</v>
+      </c>
+      <c r="AI52">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AJ52">
+        <v>0.46926910299003299</v>
+      </c>
+      <c r="AK52">
+        <v>0.43518341155061702</v>
+      </c>
+      <c r="AL52">
+        <v>0.43573667711598701</v>
+      </c>
+      <c r="AM52" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="53" spans="16:39" x14ac:dyDescent="0.25">
+      <c r="P53" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>178</v>
+      </c>
+      <c r="R53">
+        <v>1200</v>
+      </c>
+      <c r="S53">
+        <v>800</v>
+      </c>
+      <c r="T53" s="20">
+        <v>45064</v>
+      </c>
+      <c r="U53" s="95">
+        <v>0.91306712962962966</v>
+      </c>
+      <c r="V53">
+        <v>1</v>
+      </c>
+      <c r="W53" t="s">
+        <v>153</v>
+      </c>
+      <c r="X53" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y53">
+        <v>0.11</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB53">
+        <v>1200</v>
+      </c>
+      <c r="AC53">
+        <v>20</v>
+      </c>
+      <c r="AD53">
+        <v>0.05</v>
+      </c>
+      <c r="AE53">
+        <v>20</v>
+      </c>
+      <c r="AF53">
+        <v>0.95</v>
+      </c>
+      <c r="AG53">
+        <v>0.5</v>
+      </c>
+      <c r="AH53">
+        <v>0.5</v>
+      </c>
+      <c r="AI53">
+        <v>0.5</v>
+      </c>
+      <c r="AJ53">
+        <v>0.36544850498338799</v>
+      </c>
+      <c r="AK53">
+        <v>0.360358203237237</v>
+      </c>
+      <c r="AL53">
+        <v>0.37304075235109702</v>
+      </c>
+      <c r="AM53" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="54" spans="16:39" x14ac:dyDescent="0.25">
+      <c r="P54" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>178</v>
+      </c>
+      <c r="R54">
+        <v>1200</v>
+      </c>
+      <c r="S54">
+        <v>800</v>
+      </c>
+      <c r="T54" s="20">
+        <v>45064</v>
+      </c>
+      <c r="U54" s="95">
+        <v>0.91306712962962966</v>
+      </c>
+      <c r="V54">
+        <v>2</v>
+      </c>
+      <c r="W54" t="s">
+        <v>153</v>
+      </c>
+      <c r="X54" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y54">
+        <v>0.11</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB54">
+        <v>1200</v>
+      </c>
+      <c r="AC54">
+        <v>20</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>20</v>
+      </c>
+      <c r="AF54">
+        <v>0.95</v>
+      </c>
+      <c r="AG54">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="AH54">
+        <v>0.75641025641025605</v>
+      </c>
+      <c r="AI54">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="AJ54">
+        <v>0.38825757575757502</v>
+      </c>
+      <c r="AK54">
+        <v>0.374720783835922</v>
+      </c>
+      <c r="AL54">
+        <v>0.38660209846650501</v>
+      </c>
+      <c r="AM54" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="55" spans="16:39" x14ac:dyDescent="0.25">
+      <c r="P55" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>178</v>
+      </c>
+      <c r="R55">
+        <v>1200</v>
+      </c>
+      <c r="S55">
+        <v>800</v>
+      </c>
+      <c r="T55" s="20">
+        <v>45064</v>
+      </c>
+      <c r="U55" s="95">
+        <v>0.91306712962962966</v>
+      </c>
+      <c r="V55">
+        <v>3</v>
+      </c>
+      <c r="W55" t="s">
+        <v>153</v>
+      </c>
+      <c r="X55" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y55">
+        <v>0.11</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB55">
+        <v>1200</v>
+      </c>
+      <c r="AC55">
+        <v>20</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>20</v>
+      </c>
+      <c r="AF55">
+        <v>1</v>
+      </c>
+      <c r="AG55">
+        <v>0.5</v>
+      </c>
+      <c r="AH55">
+        <v>0.25</v>
+      </c>
+      <c r="AI55">
+        <v>0.5</v>
+      </c>
+      <c r="AJ55">
+        <v>0.27777777777777701</v>
+      </c>
+      <c r="AK55">
+        <v>0.30487804878048702</v>
+      </c>
+      <c r="AL55">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="AM55" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="56" spans="16:39" x14ac:dyDescent="0.25">
+      <c r="P56" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>178</v>
+      </c>
+      <c r="R56">
+        <v>1200</v>
+      </c>
+      <c r="S56">
+        <v>800</v>
+      </c>
+      <c r="T56" s="20">
+        <v>45064</v>
+      </c>
+      <c r="U56" s="95">
+        <v>0.91306712962962966</v>
+      </c>
+      <c r="V56">
+        <v>4</v>
+      </c>
+      <c r="W56" t="s">
+        <v>153</v>
+      </c>
+      <c r="X56" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y56">
+        <v>0.11</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB56">
+        <v>1200</v>
+      </c>
+      <c r="AC56">
+        <v>20</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>20</v>
+      </c>
+      <c r="AF56">
+        <v>0.95</v>
+      </c>
+      <c r="AG56">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="AH56">
+        <v>0.75641025641025605</v>
+      </c>
+      <c r="AI56">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="AJ56">
+        <v>0.38825757575757502</v>
+      </c>
+      <c r="AK56">
+        <v>0.374720783835922</v>
+      </c>
+      <c r="AL56">
+        <v>0.38660209846650501</v>
+      </c>
+      <c r="AM56" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="57" spans="16:39" x14ac:dyDescent="0.25">
+      <c r="P57" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>178</v>
+      </c>
+      <c r="R57">
+        <v>1400</v>
+      </c>
+      <c r="S57">
+        <v>800</v>
+      </c>
+      <c r="T57" s="20">
+        <v>45065</v>
+      </c>
+      <c r="U57" s="95">
+        <v>9.4560185185185181E-3</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>153</v>
+      </c>
+      <c r="X57" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y57">
+        <v>0.11</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB57">
+        <v>1400</v>
+      </c>
+      <c r="AC57">
+        <v>20</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>20</v>
+      </c>
+      <c r="AF57">
+        <v>1</v>
+      </c>
+      <c r="AG57">
+        <v>0.5</v>
+      </c>
+      <c r="AH57">
+        <v>0.25</v>
+      </c>
+      <c r="AI57">
+        <v>0.5</v>
+      </c>
+      <c r="AJ57">
+        <v>0.27777777777777701</v>
+      </c>
+      <c r="AK57">
+        <v>0.30487804878048702</v>
+      </c>
+      <c r="AL57">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="AM57" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="58" spans="16:39" x14ac:dyDescent="0.25">
+      <c r="P58" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>178</v>
+      </c>
+      <c r="R58">
+        <v>1400</v>
+      </c>
+      <c r="S58">
+        <v>800</v>
+      </c>
+      <c r="T58" s="20">
+        <v>45065</v>
+      </c>
+      <c r="U58" s="95">
+        <v>9.4560185185185181E-3</v>
+      </c>
+      <c r="V58">
+        <v>1</v>
+      </c>
+      <c r="W58" t="s">
+        <v>153</v>
+      </c>
+      <c r="X58" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y58">
+        <v>0.11</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA58" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB58">
+        <v>1400</v>
+      </c>
+      <c r="AC58">
+        <v>20</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>20</v>
+      </c>
+      <c r="AF58">
+        <v>1</v>
+      </c>
+      <c r="AG58">
+        <v>0.5</v>
+      </c>
+      <c r="AH58">
+        <v>0.25</v>
+      </c>
+      <c r="AI58">
+        <v>0.5</v>
+      </c>
+      <c r="AJ58">
+        <v>0.27777777777777701</v>
+      </c>
+      <c r="AK58">
+        <v>0.30487804878048702</v>
+      </c>
+      <c r="AL58">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="AM58" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="59" spans="16:39" x14ac:dyDescent="0.25">
+      <c r="P59" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>178</v>
+      </c>
+      <c r="R59">
+        <v>1400</v>
+      </c>
+      <c r="S59">
+        <v>800</v>
+      </c>
+      <c r="T59" s="20">
+        <v>45065</v>
+      </c>
+      <c r="U59" s="95">
+        <v>9.4560185185185181E-3</v>
+      </c>
+      <c r="V59">
+        <v>2</v>
+      </c>
+      <c r="W59" t="s">
+        <v>153</v>
+      </c>
+      <c r="X59" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y59">
+        <v>0.11</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA59" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB59">
+        <v>1400</v>
+      </c>
+      <c r="AC59">
+        <v>20</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>20</v>
+      </c>
+      <c r="AF59">
+        <v>1</v>
+      </c>
+      <c r="AG59">
+        <v>0.5</v>
+      </c>
+      <c r="AH59">
+        <v>0.25</v>
+      </c>
+      <c r="AI59">
+        <v>0.5</v>
+      </c>
+      <c r="AJ59">
+        <v>0.27777777777777701</v>
+      </c>
+      <c r="AK59">
+        <v>0.30487804878048702</v>
+      </c>
+      <c r="AL59">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="AM59" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="60" spans="16:39" x14ac:dyDescent="0.25">
+      <c r="P60" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>178</v>
+      </c>
+      <c r="R60">
+        <v>1400</v>
+      </c>
+      <c r="S60">
+        <v>800</v>
+      </c>
+      <c r="T60" s="20">
+        <v>45065</v>
+      </c>
+      <c r="U60" s="95">
+        <v>9.4675925925925917E-3</v>
+      </c>
+      <c r="V60">
+        <v>3</v>
+      </c>
+      <c r="W60" t="s">
+        <v>153</v>
+      </c>
+      <c r="X60" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y60">
+        <v>0.11</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA60" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB60">
+        <v>1400</v>
+      </c>
+      <c r="AC60">
+        <v>20</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>20</v>
+      </c>
+      <c r="AF60">
+        <v>1</v>
+      </c>
+      <c r="AG60">
+        <v>0.5</v>
+      </c>
+      <c r="AH60">
+        <v>0.25</v>
+      </c>
+      <c r="AI60">
+        <v>0.5</v>
+      </c>
+      <c r="AJ60">
+        <v>0.27777777777777701</v>
+      </c>
+      <c r="AK60">
+        <v>0.30487804878048702</v>
+      </c>
+      <c r="AL60">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="AM60" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="61" spans="16:39" x14ac:dyDescent="0.25">
+      <c r="P61" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>178</v>
+      </c>
+      <c r="R61">
+        <v>1400</v>
+      </c>
+      <c r="S61">
+        <v>800</v>
+      </c>
+      <c r="T61" s="20">
+        <v>45065</v>
+      </c>
+      <c r="U61" s="95">
+        <v>9.4675925925925917E-3</v>
+      </c>
+      <c r="V61">
+        <v>4</v>
+      </c>
+      <c r="W61" t="s">
+        <v>153</v>
+      </c>
+      <c r="X61" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y61">
+        <v>0.11</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB61">
+        <v>1400</v>
+      </c>
+      <c r="AC61">
+        <v>20</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>20</v>
+      </c>
+      <c r="AF61">
+        <v>1</v>
+      </c>
+      <c r="AG61">
+        <v>0.5</v>
+      </c>
+      <c r="AH61">
+        <v>0.25</v>
+      </c>
+      <c r="AI61">
+        <v>0.5</v>
+      </c>
+      <c r="AJ61">
+        <v>0.27777777777777701</v>
+      </c>
+      <c r="AK61">
+        <v>0.30487804878048702</v>
+      </c>
+      <c r="AL61">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="AM61" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F461EBD-775C-4D5A-A5B9-71E17FF64C29}">
   <dimension ref="B2:P33"/>
   <sheetViews>
@@ -9128,7 +14667,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF9F3D8-EE75-4BA9-AEF3-53D4AB9C675D}">
   <dimension ref="A1:E5"/>
   <sheetViews>
